--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596531.624318581</v>
+        <v>1589545.902266249</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9087784.772392511</v>
+        <v>9087784.772392519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7619571.375067962</v>
+        <v>7619571.375067961</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>191.285103463641</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>168.4839191307749</v>
+        <v>24.39993127958605</v>
       </c>
       <c r="F11" t="n">
         <v>191.285103463641</v>
@@ -1385,10 +1385,10 @@
         <v>191.285103463641</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>191.285103463641</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>144.0839878511889</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1449,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5537586874387</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>70.44595788922911</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.4221035295096</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>103.3365283531209</v>
       </c>
       <c r="I12" t="n">
         <v>57.67252309460378</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>191.285103463641</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>130.8534698592733</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>132.2198272546962</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>142.5597809211561</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>191.285103463641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>64.71958692963436</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.285103463641</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>191.285103463641</v>
       </c>
       <c r="G14" t="n">
         <v>191.285103463641</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>24.39993127958605</v>
-      </c>
-      <c r="U14" t="n">
-        <v>191.285103463641</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>142.1937816956788</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>24.781952630712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.4221035295096</v>
@@ -1704,7 +1704,7 @@
         <v>103.3365283531209</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>57.67252309460378</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2184971202539</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>168.483919130775</v>
       </c>
       <c r="V16" t="n">
-        <v>89.79910789665944</v>
+        <v>191.285103463641</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>191.285103463641</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.285103463641</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>41.69220862606595</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>12.52196090817523</v>
       </c>
       <c r="T17" t="n">
-        <v>68.3081166771377</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1926,19 +1926,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>82.35754742286925</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>43.88043020800095</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.4221035295096</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>103.3365283531209</v>
       </c>
       <c r="I18" t="n">
         <v>57.67252309460378</v>
@@ -1983,13 +1983,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>132.2198272546962</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>224.644983501406</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>195.1521505330883</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>166.8897654135007</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>341.1335420202623</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5806208762863</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>321.8381750881572</v>
       </c>
       <c r="I20" t="n">
-        <v>144.0839878511889</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>41.69220862606595</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>169.7773366784791</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>215.5572839775709</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2078835767286</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>124.5628047451466</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.81526662113168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>56.34366557975171</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3591031532178</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>132.2198272546962</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>210.5543393948013</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>164.4489099679996</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.5806208762863</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>41.69220862606595</v>
       </c>
       <c r="S23" t="n">
         <v>169.7773366784791</v>
@@ -2372,19 +2372,19 @@
         <v>215.5572839775709</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2078835767286</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>38.92899436386971</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>111.7614412608989</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.75459773875856</v>
+        <v>167.2184971202539</v>
       </c>
       <c r="H25" t="n">
         <v>155.3591031532178</v>
       </c>
       <c r="I25" t="n">
-        <v>132.2198272546962</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>21.47718965073622</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>179.6622471835541</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.5806208762863</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>321.8381750881572</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>144.0839878511889</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.5572839775709</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2078835767286</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>95.66075338816451</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2184971202539</v>
       </c>
       <c r="H28" t="n">
-        <v>155.3591031532178</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>120.625147849952</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.01308071275827</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>342.0199450380384</v>
       </c>
       <c r="D29" t="n">
-        <v>331.4300948877137</v>
+        <v>331.4300948877138</v>
       </c>
       <c r="E29" t="n">
-        <v>358.6774233392925</v>
+        <v>358.6774233392927</v>
       </c>
       <c r="F29" t="n">
-        <v>383.6230990087422</v>
+        <v>383.6230990087423</v>
       </c>
       <c r="G29" t="n">
-        <v>390.327674143317</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>298.585228355188</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.8310411182196</v>
+        <v>120.8310411182198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.43926189309683</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>227.9549368437595</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>26.61078700958334</v>
       </c>
       <c r="W29" t="n">
-        <v>325.9880219844438</v>
+        <v>325.9880219844439</v>
       </c>
       <c r="X29" t="n">
-        <v>272.590182231474</v>
+        <v>346.4781539454999</v>
       </c>
       <c r="Y29" t="n">
-        <v>362.9849919230844</v>
+        <v>362.9849919230845</v>
       </c>
     </row>
     <row r="30">
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.3625262852431</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>123.1810159136</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>132.1061564202485</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3068341881869</v>
+        <v>119.306834188187</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>39.15262545047474</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>201.3920367684369</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>228.8846965908587</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>72.70400545528837</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>202.4567086560679</v>
+        <v>202.456708656068</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>195.3317066191257</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>359.4808949305113</v>
+        <v>149.524716635731</v>
       </c>
       <c r="C32" t="n">
-        <v>342.0199450380383</v>
+        <v>342.0199450380384</v>
       </c>
       <c r="D32" t="n">
-        <v>331.4300948877137</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>358.6774233392925</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>383.6230990087422</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>390.327674143317</v>
+        <v>390.3276741433172</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>298.5852283551881</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>120.8310411182198</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.43926189309668</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>10.06189806809771</v>
+        <v>146.52438994551</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>192.3043372446018</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>227.9549368437595</v>
       </c>
       <c r="V32" t="n">
-        <v>304.4993117371657</v>
+        <v>304.4993117371658</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>325.9880219844439</v>
       </c>
       <c r="X32" t="n">
-        <v>346.4781539454998</v>
+        <v>346.4781539454999</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.81010355686116</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>123.1810159135999</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>143.9655503872846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.1061564202485</v>
+        <v>132.1061564202487</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.96406368724328</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.301392661832</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>263.0239472287106</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>263.2700516036219</v>
       </c>
       <c r="X34" t="n">
-        <v>202.4567086560679</v>
+        <v>202.456708656068</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>359.4808949305113</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>342.0199450380383</v>
+        <v>342.0199450380384</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>358.6774233392927</v>
       </c>
       <c r="F35" t="n">
-        <v>352.2715564711553</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>298.585228355188</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.43926189309668</v>
+        <v>18.43926189309683</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>192.3043372446016</v>
+        <v>192.3043372446018</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>227.9549368437595</v>
       </c>
       <c r="V35" t="n">
-        <v>304.4993117371657</v>
+        <v>304.4993117371658</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>325.9880219844439</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>97.7172975893597</v>
       </c>
       <c r="Y35" t="n">
-        <v>362.9849919230844</v>
+        <v>362.9849919230845</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.2802369168981</v>
+        <v>143.2802369168982</v>
       </c>
       <c r="C36" t="n">
-        <v>149.4555522553465</v>
+        <v>149.4555522553466</v>
       </c>
       <c r="D36" t="n">
-        <v>124.1921188316695</v>
+        <v>124.1921188316696</v>
       </c>
       <c r="E36" t="n">
-        <v>134.3921337224317</v>
+        <v>134.3921337224318</v>
       </c>
       <c r="F36" t="n">
-        <v>121.8162656604146</v>
+        <v>121.8162656604148</v>
       </c>
       <c r="G36" t="n">
-        <v>113.1691567965403</v>
+        <v>113.1691567965405</v>
       </c>
       <c r="H36" t="n">
-        <v>80.08358162015161</v>
+        <v>80.08358162015173</v>
       </c>
       <c r="I36" t="n">
-        <v>34.41957636163453</v>
+        <v>34.41957636163465</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.69641637286863</v>
+        <v>19.6964163728688</v>
       </c>
       <c r="S36" t="n">
-        <v>131.3153702536588</v>
+        <v>131.3153702536593</v>
       </c>
       <c r="T36" t="n">
-        <v>173.1978384119785</v>
+        <v>173.1978384119787</v>
       </c>
       <c r="U36" t="n">
-        <v>202.6278160299992</v>
+        <v>202.6278160299983</v>
       </c>
       <c r="V36" t="n">
-        <v>209.547640416456</v>
+        <v>209.5476404164561</v>
       </c>
       <c r="W36" t="n">
-        <v>228.4420364279503</v>
+        <v>228.4420364279505</v>
       </c>
       <c r="X36" t="n">
-        <v>182.5200384705082</v>
+        <v>182.5200384705084</v>
       </c>
       <c r="Y36" t="n">
-        <v>182.4297490443351</v>
+        <v>182.4297490443352</v>
       </c>
     </row>
     <row r="37">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.5790334489682</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>143.9938743656587</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.6462615585179</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>122.168101289962</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.3068341881869</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>201.3920367684367</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>263.0239472287105</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>174.9300081205976</v>
+        <v>263.2700516036219</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>195.3317066191257</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>359.4808949305115</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>331.4300948877137</v>
+        <v>331.4300948877138</v>
       </c>
       <c r="E38" t="n">
-        <v>358.6774233392925</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>383.6230990087422</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>390.327674143317</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>298.585228355188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.8310411182196</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>42.61165500320269</v>
+        <v>192.3043372446018</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>227.9549368437595</v>
       </c>
       <c r="V38" t="n">
-        <v>304.4993117371657</v>
+        <v>304.4993117371658</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>105.4528060805055</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>346.4781539454999</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>362.9849919230845</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>143.2802369168981</v>
+        <v>143.2802369168982</v>
       </c>
       <c r="C39" t="n">
-        <v>149.4555522553465</v>
+        <v>149.4555522553456</v>
       </c>
       <c r="D39" t="n">
-        <v>124.1921188316695</v>
+        <v>124.1921188316696</v>
       </c>
       <c r="E39" t="n">
-        <v>134.3921337224316</v>
+        <v>134.3921337224318</v>
       </c>
       <c r="F39" t="n">
-        <v>121.8162656604146</v>
+        <v>121.8162656604148</v>
       </c>
       <c r="G39" t="n">
-        <v>113.1691567965403</v>
+        <v>113.1691567965405</v>
       </c>
       <c r="H39" t="n">
-        <v>80.08358162015161</v>
+        <v>80.08358162015173</v>
       </c>
       <c r="I39" t="n">
-        <v>34.41957636163453</v>
+        <v>34.41957636163465</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>19.69641637286868</v>
+        <v>19.6964163728688</v>
       </c>
       <c r="S39" t="n">
-        <v>131.3153702536589</v>
+        <v>131.315370253659</v>
       </c>
       <c r="T39" t="n">
-        <v>173.1978384119785</v>
+        <v>173.1978384119787</v>
       </c>
       <c r="U39" t="n">
-        <v>202.6278160299989</v>
+        <v>202.6278160299991</v>
       </c>
       <c r="V39" t="n">
-        <v>209.547640416456</v>
+        <v>209.5476404164561</v>
       </c>
       <c r="W39" t="n">
-        <v>228.4420364279503</v>
+        <v>228.4420364279505</v>
       </c>
       <c r="X39" t="n">
-        <v>182.5200384705082</v>
+        <v>182.5200384705084</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.4297490443351</v>
+        <v>182.4297490443352</v>
       </c>
     </row>
     <row r="40">
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>143.9938743656586</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>43.55469662060133</v>
       </c>
       <c r="F40" t="n">
-        <v>76.83092526720127</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>143.9655503872846</v>
+        <v>143.9655503872847</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.3068341881869</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>201.3920367684367</v>
+        <v>201.3920367684369</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>263.0239472287106</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>228.8846965908589</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.3317066191255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>226.968905276204</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>226.968905276204</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>226.968905276204</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>226.9689052762043</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>226.9689052762043</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>226.9689052762043</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.8310411182196</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.43926189309683</v>
       </c>
       <c r="S41" t="n">
-        <v>79.08317064906115</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>181.4749498741837</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.4555522553465</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>88.58650502074524</v>
       </c>
       <c r="T42" t="n">
-        <v>173.1978384119785</v>
+        <v>173.1978384119787</v>
       </c>
       <c r="U42" t="n">
-        <v>202.6278160299989</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>128.5708156223653</v>
+        <v>209.5476404164561</v>
       </c>
       <c r="W42" t="n">
-        <v>226.9689052762043</v>
+        <v>226.968905276204</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>182.5200384705084</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.9938743656587</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>125.3625262852432</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>123.1810159136</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>122.1681012899621</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>119.3068341881869</v>
+        <v>119.306834188187</v>
       </c>
       <c r="S43" t="n">
-        <v>187.301392661832</v>
+        <v>187.3013926618322</v>
       </c>
       <c r="T43" t="n">
-        <v>201.3920367684367</v>
+        <v>59.5071828914092</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9689052762043</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.8517587012336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>84.0427916007838</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>95.4164300644685</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>95.4164300644685</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>95.4164300644685</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>84.0427916007838</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>95.4164300644685</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>95.4164300644685</v>
       </c>
     </row>
     <row r="45">
@@ -4053,76 +4053,76 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>95.4164300644685</v>
       </c>
-      <c r="C45" t="n">
-        <v>26.37026850618003</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>84.0427916007838</v>
+      </c>
+      <c r="X45" t="n">
         <v>95.4164300644685</v>
       </c>
-      <c r="I45" t="n">
-        <v>57.67252309460378</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="Y45" t="n">
         <v>95.4164300644685</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,61 +4144,61 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>95.4164300644685</v>
+      </c>
+      <c r="H46" t="n">
+        <v>95.4164300644685</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>95.4164300644685</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>84.0427916007838</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>95.4164300644685</v>
-      </c>
-      <c r="S46" t="n">
-        <v>95.4164300644685</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>95.4164300644685</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>765.1404138545639</v>
       </c>
       <c r="D11" t="n">
-        <v>571.9231376286639</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="E11" t="n">
-        <v>401.7373607288912</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="F11" t="n">
-        <v>208.5200845029913</v>
+        <v>547.2767423967589</v>
       </c>
       <c r="G11" t="n">
-        <v>15.30280827709128</v>
+        <v>354.0594661708589</v>
       </c>
       <c r="H11" t="n">
-        <v>15.30280827709128</v>
+        <v>160.8421899449589</v>
       </c>
       <c r="I11" t="n">
         <v>15.30280827709128</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>765.1404138545639</v>
+        <v>571.9231376286639</v>
       </c>
       <c r="C12" t="n">
-        <v>590.6873845734369</v>
+        <v>571.9231376286639</v>
       </c>
       <c r="D12" t="n">
-        <v>441.7529749121857</v>
+        <v>462.2728763282207</v>
       </c>
       <c r="E12" t="n">
-        <v>282.5155199067302</v>
+        <v>462.2728763282207</v>
       </c>
       <c r="F12" t="n">
-        <v>211.3579866852866</v>
+        <v>315.7383183551057</v>
       </c>
       <c r="G12" t="n">
-        <v>73.55788211002438</v>
+        <v>177.9382137798434</v>
       </c>
       <c r="H12" t="n">
         <v>73.55788211002438</v>
@@ -5121,22 +5121,22 @@
         <v>15.30280827709128</v>
       </c>
       <c r="K12" t="n">
-        <v>121.199187024549</v>
+        <v>161.7557026153493</v>
       </c>
       <c r="L12" t="n">
-        <v>182.0936673451276</v>
+        <v>351.1279550443538</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5115218444286</v>
+        <v>540.5002074733584</v>
       </c>
       <c r="N12" t="n">
-        <v>461.8837742734332</v>
+        <v>647.7197984502802</v>
       </c>
       <c r="O12" t="n">
-        <v>537.7489577712631</v>
+        <v>723.5849819481101</v>
       </c>
       <c r="P12" t="n">
-        <v>579.3043896777169</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="Q12" t="n">
         <v>765.1404138545639</v>
@@ -5157,13 +5157,13 @@
         <v>765.1404138545639</v>
       </c>
       <c r="W12" t="n">
-        <v>765.1404138545639</v>
+        <v>571.9231376286639</v>
       </c>
       <c r="X12" t="n">
-        <v>765.1404138545639</v>
+        <v>571.9231376286639</v>
       </c>
       <c r="Y12" t="n">
-        <v>765.1404138545639</v>
+        <v>571.9231376286639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>427.9233589204254</v>
+        <v>313.3325412718201</v>
       </c>
       <c r="C13" t="n">
-        <v>295.7481368403513</v>
+        <v>313.3325412718201</v>
       </c>
       <c r="D13" t="n">
-        <v>295.7481368403513</v>
+        <v>163.2159018594844</v>
       </c>
       <c r="E13" t="n">
-        <v>295.7481368403513</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="F13" t="n">
-        <v>148.8581893424409</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="G13" t="n">
-        <v>148.8581893424409</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="H13" t="n">
-        <v>148.8581893424409</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="I13" t="n">
         <v>15.30280827709128</v>
@@ -5200,16 +5200,16 @@
         <v>15.30280827709128</v>
       </c>
       <c r="K13" t="n">
-        <v>82.10691840779566</v>
+        <v>82.10691840779563</v>
       </c>
       <c r="L13" t="n">
-        <v>223.1196141279361</v>
+        <v>223.119614127936</v>
       </c>
       <c r="M13" t="n">
-        <v>382.1868534204631</v>
+        <v>382.186853420463</v>
       </c>
       <c r="N13" t="n">
-        <v>542.9064457172283</v>
+        <v>542.9064457172282</v>
       </c>
       <c r="O13" t="n">
         <v>675.3407069086167</v>
@@ -5221,28 +5221,28 @@
         <v>765.1404138545639</v>
       </c>
       <c r="R13" t="n">
-        <v>621.1406351463254</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="S13" t="n">
-        <v>621.1406351463254</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="T13" t="n">
-        <v>621.1406351463254</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="U13" t="n">
-        <v>427.9233589204254</v>
+        <v>571.9231376286639</v>
       </c>
       <c r="V13" t="n">
-        <v>427.9233589204254</v>
+        <v>506.5498174977201</v>
       </c>
       <c r="W13" t="n">
-        <v>427.9233589204254</v>
+        <v>313.3325412718201</v>
       </c>
       <c r="X13" t="n">
-        <v>427.9233589204254</v>
+        <v>313.3325412718201</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.9233589204254</v>
+        <v>313.3325412718201</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="C14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="D14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="E14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="F14" t="n">
         <v>547.2767423967589</v>
@@ -5279,19 +5279,19 @@
         <v>15.30280827709128</v>
       </c>
       <c r="K14" t="n">
-        <v>15.30280827709128</v>
+        <v>47.51995134311383</v>
       </c>
       <c r="L14" t="n">
-        <v>63.76538560452536</v>
+        <v>236.8922037721184</v>
       </c>
       <c r="M14" t="n">
-        <v>135.087341838166</v>
+        <v>308.214160005759</v>
       </c>
       <c r="N14" t="n">
-        <v>212.1771702673094</v>
+        <v>385.3039884349024</v>
       </c>
       <c r="O14" t="n">
-        <v>401.549422696314</v>
+        <v>574.676240863907</v>
       </c>
       <c r="P14" t="n">
         <v>590.9216751253185</v>
@@ -5306,22 +5306,22 @@
         <v>765.1404138545639</v>
       </c>
       <c r="T14" t="n">
+        <v>765.1404138545639</v>
+      </c>
+      <c r="U14" t="n">
+        <v>765.1404138545639</v>
+      </c>
+      <c r="V14" t="n">
+        <v>765.1404138545639</v>
+      </c>
+      <c r="W14" t="n">
         <v>740.4940186226588</v>
       </c>
-      <c r="U14" t="n">
-        <v>547.2767423967589</v>
-      </c>
-      <c r="V14" t="n">
-        <v>547.2767423967589</v>
-      </c>
-      <c r="W14" t="n">
-        <v>547.2767423967589</v>
-      </c>
       <c r="X14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
       <c r="Y14" t="n">
-        <v>547.2767423967589</v>
+        <v>740.4940186226588</v>
       </c>
     </row>
     <row r="15">
@@ -5334,22 +5334,22 @@
         <v>765.1404138545639</v>
       </c>
       <c r="C15" t="n">
-        <v>590.6873845734369</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="D15" t="n">
-        <v>441.7529749121857</v>
+        <v>621.5103313336763</v>
       </c>
       <c r="E15" t="n">
-        <v>282.5155199067302</v>
+        <v>462.2728763282207</v>
       </c>
       <c r="F15" t="n">
-        <v>257.4832445221726</v>
+        <v>315.7383183551057</v>
       </c>
       <c r="G15" t="n">
-        <v>119.6831399469103</v>
+        <v>177.9382137798434</v>
       </c>
       <c r="H15" t="n">
-        <v>15.30280827709128</v>
+        <v>73.55788211002438</v>
       </c>
       <c r="I15" t="n">
         <v>15.30280827709128</v>
@@ -5358,22 +5358,22 @@
         <v>15.30280827709128</v>
       </c>
       <c r="K15" t="n">
-        <v>204.6750607060958</v>
+        <v>26.13999814182064</v>
       </c>
       <c r="L15" t="n">
-        <v>265.5695410266744</v>
+        <v>215.5122505708252</v>
       </c>
       <c r="M15" t="n">
-        <v>355.9873955259754</v>
+        <v>404.8845029998297</v>
       </c>
       <c r="N15" t="n">
-        <v>463.2069865028973</v>
+        <v>512.1040939767516</v>
       </c>
       <c r="O15" t="n">
-        <v>539.0721700007273</v>
+        <v>701.4763464057562</v>
       </c>
       <c r="P15" t="n">
-        <v>580.6276019071811</v>
+        <v>765.1404138545639</v>
       </c>
       <c r="Q15" t="n">
         <v>765.1404138545639</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.2169680360787</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="C16" t="n">
-        <v>481.2169680360787</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="D16" t="n">
-        <v>331.1003286237429</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="E16" t="n">
-        <v>331.1003286237429</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="F16" t="n">
-        <v>184.2103811258326</v>
+        <v>15.30280827709128</v>
       </c>
       <c r="G16" t="n">
         <v>15.30280827709128</v>
@@ -5437,7 +5437,7 @@
         <v>15.30280827709128</v>
       </c>
       <c r="K16" t="n">
-        <v>82.10691840779562</v>
+        <v>82.10691840779563</v>
       </c>
       <c r="L16" t="n">
         <v>223.119614127936</v>
@@ -5467,19 +5467,19 @@
         <v>765.1404138545639</v>
       </c>
       <c r="U16" t="n">
-        <v>765.1404138545639</v>
+        <v>594.9546369547912</v>
       </c>
       <c r="V16" t="n">
-        <v>674.4342442619786</v>
+        <v>401.7373607288912</v>
       </c>
       <c r="W16" t="n">
-        <v>674.4342442619786</v>
+        <v>401.7373607288912</v>
       </c>
       <c r="X16" t="n">
-        <v>481.2169680360787</v>
+        <v>208.5200845029913</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.2169680360787</v>
+        <v>15.30280827709128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1700.765522928097</v>
+        <v>1711.462341261758</v>
       </c>
       <c r="C17" t="n">
-        <v>1700.765522928097</v>
+        <v>1342.499824321346</v>
       </c>
       <c r="D17" t="n">
         <v>1342.499824321346</v>
@@ -5507,58 +5507,58 @@
         <v>513.7557166263989</v>
       </c>
       <c r="H17" t="n">
-        <v>188.6666508807854</v>
+        <v>188.6666508807855</v>
       </c>
       <c r="I17" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="J17" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="K17" t="n">
-        <v>363.0113725788091</v>
+        <v>363.0113725788092</v>
       </c>
       <c r="L17" t="n">
         <v>812.1325164337429</v>
       </c>
       <c r="M17" t="n">
-        <v>1328.472870825288</v>
+        <v>883.4544726673836</v>
       </c>
       <c r="N17" t="n">
-        <v>1529.448630477096</v>
+        <v>1385.086648116575</v>
       </c>
       <c r="O17" t="n">
-        <v>1965.899287655236</v>
+        <v>1821.537305294714</v>
       </c>
       <c r="P17" t="n">
-        <v>1982.144721916647</v>
+        <v>2156.363460645894</v>
       </c>
       <c r="Q17" t="n">
-        <v>2156.363460645893</v>
+        <v>2156.363460645894</v>
       </c>
       <c r="R17" t="n">
-        <v>2156.363460645893</v>
+        <v>2114.250118599362</v>
       </c>
       <c r="S17" t="n">
-        <v>2156.363460645893</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="T17" t="n">
-        <v>2087.365362992218</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="U17" t="n">
-        <v>2087.365362992218</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="V17" t="n">
-        <v>2087.365362992218</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="W17" t="n">
-        <v>2087.365362992218</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="X17" t="n">
-        <v>2087.365362992218</v>
+        <v>2101.601673237569</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.365362992218</v>
+        <v>1711.462341261758</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>664.7968271468305</v>
+        <v>711.2738851100792</v>
       </c>
       <c r="C18" t="n">
-        <v>490.3437978657036</v>
+        <v>536.8208558289522</v>
       </c>
       <c r="D18" t="n">
-        <v>407.1543560244215</v>
+        <v>387.8864461677009</v>
       </c>
       <c r="E18" t="n">
-        <v>247.916901018966</v>
+        <v>343.5627792909323</v>
       </c>
       <c r="F18" t="n">
-        <v>101.382343045851</v>
+        <v>343.5627792909323</v>
       </c>
       <c r="G18" t="n">
-        <v>101.382343045851</v>
+        <v>205.76267471567</v>
       </c>
       <c r="H18" t="n">
         <v>101.382343045851</v>
       </c>
       <c r="I18" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="J18" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="K18" t="n">
-        <v>53.96445907764721</v>
+        <v>315.7850437201001</v>
       </c>
       <c r="L18" t="n">
-        <v>481.9908812486504</v>
+        <v>743.8114658911032</v>
       </c>
       <c r="M18" t="n">
-        <v>1015.690837758509</v>
+        <v>1277.511422400962</v>
       </c>
       <c r="N18" t="n">
-        <v>1147.904984027262</v>
+        <v>1649.019149157648</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.693863609054</v>
+        <v>2114.80802873944</v>
       </c>
       <c r="P18" t="n">
-        <v>1970.527436469046</v>
+        <v>2156.363460645894</v>
       </c>
       <c r="Q18" t="n">
-        <v>2156.363460645893</v>
+        <v>2156.363460645894</v>
       </c>
       <c r="R18" t="n">
-        <v>2112.980265589491</v>
+        <v>2112.980265589492</v>
       </c>
       <c r="S18" t="n">
-        <v>1956.850652471685</v>
+        <v>1956.850652471686</v>
       </c>
       <c r="T18" t="n">
-        <v>1758.415515961636</v>
+        <v>1758.415515961637</v>
       </c>
       <c r="U18" t="n">
-        <v>1530.253129332376</v>
+        <v>1530.253129332377</v>
       </c>
       <c r="V18" t="n">
-        <v>1295.101021100633</v>
+        <v>1295.101021100634</v>
       </c>
       <c r="W18" t="n">
-        <v>1040.863664372431</v>
+        <v>1295.101021100634</v>
       </c>
       <c r="X18" t="n">
-        <v>833.0121641668986</v>
+        <v>1087.249520895101</v>
       </c>
       <c r="Y18" t="n">
-        <v>833.0121641668986</v>
+        <v>879.4892221301473</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>341.1570022076467</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="C19" t="n">
-        <v>341.1570022076467</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="D19" t="n">
-        <v>191.040362795311</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="E19" t="n">
-        <v>43.12726921291785</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="F19" t="n">
-        <v>43.12726921291785</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="G19" t="n">
-        <v>43.12726921291785</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="H19" t="n">
-        <v>43.12726921291785</v>
+        <v>176.6826502782675</v>
       </c>
       <c r="I19" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="J19" t="n">
-        <v>43.12726921291785</v>
+        <v>43.12726921291787</v>
       </c>
       <c r="K19" t="n">
         <v>109.9313793436222</v>
@@ -5701,22 +5701,22 @@
         <v>792.9648747903904</v>
       </c>
       <c r="T19" t="n">
-        <v>792.9648747903904</v>
+        <v>566.0507500414953</v>
       </c>
       <c r="U19" t="n">
-        <v>792.9648747903904</v>
+        <v>566.0507500414953</v>
       </c>
       <c r="V19" t="n">
-        <v>538.2803865845035</v>
+        <v>566.0507500414953</v>
       </c>
       <c r="W19" t="n">
-        <v>341.1570022076467</v>
+        <v>566.0507500414953</v>
       </c>
       <c r="X19" t="n">
-        <v>341.1570022076467</v>
+        <v>397.4752294217976</v>
       </c>
       <c r="Y19" t="n">
-        <v>341.1570022076467</v>
+        <v>176.6826502782675</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1738.812274936529</v>
+        <v>1081.585566956223</v>
       </c>
       <c r="C20" t="n">
-        <v>1738.812274936529</v>
+        <v>1081.585566956223</v>
       </c>
       <c r="D20" t="n">
-        <v>1738.812274936529</v>
+        <v>723.3198683494725</v>
       </c>
       <c r="E20" t="n">
-        <v>1353.024022338285</v>
+        <v>723.3198683494725</v>
       </c>
       <c r="F20" t="n">
-        <v>942.0381175486775</v>
+        <v>378.7405329754702</v>
       </c>
       <c r="G20" t="n">
-        <v>524.2799146433377</v>
+        <v>378.7405329754702</v>
       </c>
       <c r="H20" t="n">
-        <v>199.1908488977243</v>
+        <v>53.65146722985672</v>
       </c>
       <c r="I20" t="n">
         <v>53.65146722985672</v>
       </c>
       <c r="J20" t="n">
-        <v>53.65146722985672</v>
+        <v>186.5225428745158</v>
       </c>
       <c r="K20" t="n">
-        <v>373.535570595748</v>
+        <v>506.406646240407</v>
       </c>
       <c r="L20" t="n">
-        <v>822.6567144506819</v>
+        <v>710.6741722457192</v>
       </c>
       <c r="M20" t="n">
         <v>1227.014526637264</v>
@@ -5774,28 +5774,28 @@
         <v>2682.573361492836</v>
       </c>
       <c r="R20" t="n">
-        <v>2640.460019446305</v>
+        <v>2682.573361492836</v>
       </c>
       <c r="S20" t="n">
-        <v>2468.967760175114</v>
+        <v>2682.573361492836</v>
       </c>
       <c r="T20" t="n">
-        <v>2251.233129894739</v>
+        <v>2464.838731212461</v>
       </c>
       <c r="U20" t="n">
-        <v>2251.233129894739</v>
+        <v>2211.09339426627</v>
       </c>
       <c r="V20" t="n">
-        <v>2251.233129894739</v>
+        <v>2211.09339426627</v>
       </c>
       <c r="W20" t="n">
-        <v>2251.233129894739</v>
+        <v>1858.324738996156</v>
       </c>
       <c r="X20" t="n">
-        <v>2251.233129894739</v>
+        <v>1858.324738996156</v>
       </c>
       <c r="Y20" t="n">
-        <v>2125.412115000651</v>
+        <v>1468.185407020345</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>53.65146722985672</v>
       </c>
       <c r="J21" t="n">
-        <v>139.0951899428178</v>
+        <v>53.65146722985672</v>
       </c>
       <c r="K21" t="n">
-        <v>411.75296445</v>
+        <v>326.3092417370389</v>
       </c>
       <c r="L21" t="n">
-        <v>839.7793866210031</v>
+        <v>540.8804756853648</v>
       </c>
       <c r="M21" t="n">
-        <v>1391.245254232804</v>
+        <v>1092.346343297166</v>
       </c>
       <c r="N21" t="n">
-        <v>1973.013795809844</v>
+        <v>1674.114884874205</v>
       </c>
       <c r="O21" t="n">
         <v>2139.903764455998</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2033.55925755287</v>
+        <v>401.0480288335594</v>
       </c>
       <c r="C22" t="n">
-        <v>2033.55925755287</v>
+        <v>401.0480288335594</v>
       </c>
       <c r="D22" t="n">
-        <v>1932.735755915363</v>
+        <v>401.0480288335594</v>
       </c>
       <c r="E22" t="n">
-        <v>1932.735755915363</v>
+        <v>401.0480288335594</v>
       </c>
       <c r="F22" t="n">
-        <v>1932.735755915363</v>
+        <v>344.1352353186587</v>
       </c>
       <c r="G22" t="n">
-        <v>1932.735755915363</v>
+        <v>344.1352353186587</v>
       </c>
       <c r="H22" t="n">
-        <v>1932.735755915363</v>
+        <v>187.2068482952064</v>
       </c>
       <c r="I22" t="n">
-        <v>1932.735755915363</v>
+        <v>53.65146722985672</v>
       </c>
       <c r="J22" t="n">
-        <v>1932.735755915363</v>
+        <v>53.65146722985672</v>
       </c>
       <c r="K22" t="n">
-        <v>1999.539866046067</v>
+        <v>120.4555773605611</v>
       </c>
       <c r="L22" t="n">
-        <v>2140.552561766208</v>
+        <v>261.4682730807015</v>
       </c>
       <c r="M22" t="n">
-        <v>2299.619801058735</v>
+        <v>420.5355123732285</v>
       </c>
       <c r="N22" t="n">
-        <v>2460.3393933555</v>
+        <v>581.2551046699937</v>
       </c>
       <c r="O22" t="n">
-        <v>2592.773654546889</v>
+        <v>713.689365861382</v>
       </c>
       <c r="P22" t="n">
-        <v>2682.573361492836</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="Q22" t="n">
-        <v>2682.573361492836</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="R22" t="n">
-        <v>2682.573361492836</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="S22" t="n">
-        <v>2469.892210588996</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="T22" t="n">
-        <v>2469.892210588996</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="U22" t="n">
-        <v>2469.892210588996</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="V22" t="n">
-        <v>2215.207722383109</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="W22" t="n">
-        <v>2215.207722383109</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="X22" t="n">
-        <v>2215.207722383109</v>
+        <v>803.4890728073293</v>
       </c>
       <c r="Y22" t="n">
-        <v>2215.207722383109</v>
+        <v>582.6964936637992</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1743.809287545705</v>
+        <v>1691.089081362848</v>
       </c>
       <c r="C23" t="n">
-        <v>1743.809287545705</v>
+        <v>1691.089081362848</v>
       </c>
       <c r="D23" t="n">
-        <v>1743.809287545705</v>
+        <v>1332.823382756098</v>
       </c>
       <c r="E23" t="n">
-        <v>1358.021034947461</v>
+        <v>947.0351301578535</v>
       </c>
       <c r="F23" t="n">
         <v>947.0351301578535</v>
@@ -6011,28 +6011,28 @@
         <v>2932.423991951634</v>
       </c>
       <c r="R23" t="n">
-        <v>2932.423991951634</v>
+        <v>2890.310649905103</v>
       </c>
       <c r="S23" t="n">
-        <v>2760.931732680443</v>
+        <v>2718.818390633912</v>
       </c>
       <c r="T23" t="n">
-        <v>2543.197102400068</v>
+        <v>2501.083760353537</v>
       </c>
       <c r="U23" t="n">
-        <v>2543.197102400068</v>
+        <v>2247.338423407346</v>
       </c>
       <c r="V23" t="n">
-        <v>2543.197102400068</v>
+        <v>2247.338423407346</v>
       </c>
       <c r="W23" t="n">
-        <v>2503.874885870907</v>
+        <v>2247.338423407346</v>
       </c>
       <c r="X23" t="n">
-        <v>2130.409127609827</v>
+        <v>2247.338423407346</v>
       </c>
       <c r="Y23" t="n">
-        <v>2130.409127609827</v>
+        <v>1857.199091431535</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.2434418379959</v>
+        <v>1233.097059687618</v>
       </c>
       <c r="C24" t="n">
-        <v>813.7904125568689</v>
+        <v>1058.644030406491</v>
       </c>
       <c r="D24" t="n">
-        <v>664.8560028956176</v>
+        <v>909.7096207452398</v>
       </c>
       <c r="E24" t="n">
-        <v>505.6185478901622</v>
+        <v>750.4721657397843</v>
       </c>
       <c r="F24" t="n">
-        <v>359.0839899170471</v>
+        <v>603.9376077666692</v>
       </c>
       <c r="G24" t="n">
-        <v>221.2838853417849</v>
+        <v>466.1375031914069</v>
       </c>
       <c r="H24" t="n">
-        <v>116.9035536719658</v>
+        <v>361.7571715215879</v>
       </c>
       <c r="I24" t="n">
-        <v>58.64847983903268</v>
+        <v>303.5020976886548</v>
       </c>
       <c r="J24" t="n">
-        <v>144.0922025519938</v>
+        <v>303.5020976886548</v>
       </c>
       <c r="K24" t="n">
-        <v>416.749977059176</v>
+        <v>576.1598721958369</v>
       </c>
       <c r="L24" t="n">
-        <v>844.7763992301791</v>
+        <v>1004.18629436684</v>
       </c>
       <c r="M24" t="n">
-        <v>1097.343355906341</v>
+        <v>1528.032997932811</v>
       </c>
       <c r="N24" t="n">
-        <v>1679.111897483381</v>
+        <v>2109.80153950985</v>
       </c>
       <c r="O24" t="n">
-        <v>2144.900777065173</v>
+        <v>2575.590419091643</v>
       </c>
       <c r="P24" t="n">
-        <v>2501.734349925165</v>
+        <v>2932.423991951634</v>
       </c>
       <c r="Q24" t="n">
-        <v>2687.570374102012</v>
+        <v>2932.423991951634</v>
       </c>
       <c r="R24" t="n">
-        <v>2644.18717904561</v>
+        <v>2889.040796895232</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.057565927804</v>
+        <v>2732.911183777426</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.622429417755</v>
+        <v>2534.476047267378</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.460042788495</v>
+        <v>2306.313660638117</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.307934556752</v>
+        <v>2071.161552406375</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.070577828551</v>
+        <v>1816.924195678173</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.219077623018</v>
+        <v>1609.07269547264</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.458778858064</v>
+        <v>1401.312396707686</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2711.631412808104</v>
+        <v>384.4844397112263</v>
       </c>
       <c r="C25" t="n">
-        <v>2711.631412808104</v>
+        <v>384.4844397112263</v>
       </c>
       <c r="D25" t="n">
-        <v>2711.631412808104</v>
+        <v>384.4844397112263</v>
       </c>
       <c r="E25" t="n">
-        <v>2711.631412808104</v>
+        <v>384.4844397112263</v>
       </c>
       <c r="F25" t="n">
-        <v>2564.741465310194</v>
+        <v>384.4844397112263</v>
       </c>
       <c r="G25" t="n">
-        <v>2473.070154462963</v>
+        <v>215.576866862485</v>
       </c>
       <c r="H25" t="n">
-        <v>2316.141767439511</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="I25" t="n">
-        <v>2182.586386374161</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="J25" t="n">
-        <v>2182.586386374161</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K25" t="n">
-        <v>2249.390496504865</v>
+        <v>125.452589969737</v>
       </c>
       <c r="L25" t="n">
-        <v>2390.403192225006</v>
+        <v>266.4652856898774</v>
       </c>
       <c r="M25" t="n">
-        <v>2549.470431517533</v>
+        <v>425.5325249824044</v>
       </c>
       <c r="N25" t="n">
-        <v>2710.190023814298</v>
+        <v>586.2521172791696</v>
       </c>
       <c r="O25" t="n">
-        <v>2842.624285005687</v>
+        <v>718.686378470558</v>
       </c>
       <c r="P25" t="n">
-        <v>2932.423991951634</v>
+        <v>808.4860854165053</v>
       </c>
       <c r="Q25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="R25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="S25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="T25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="U25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="V25" t="n">
-        <v>2932.423991951634</v>
+        <v>786.7919544561656</v>
       </c>
       <c r="W25" t="n">
-        <v>2932.423991951634</v>
+        <v>497.374784419205</v>
       </c>
       <c r="X25" t="n">
-        <v>2932.423991951634</v>
+        <v>497.374784419205</v>
       </c>
       <c r="Y25" t="n">
-        <v>2711.631412808104</v>
+        <v>497.374784419205</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1353.141965341564</v>
+        <v>1332.823382756098</v>
       </c>
       <c r="C26" t="n">
-        <v>984.1794484011527</v>
+        <v>1332.823382756098</v>
       </c>
       <c r="D26" t="n">
-        <v>625.9137497944023</v>
+        <v>1332.823382756098</v>
       </c>
       <c r="E26" t="n">
-        <v>240.1254971961581</v>
+        <v>947.0351301578535</v>
       </c>
       <c r="F26" t="n">
-        <v>58.64847983903268</v>
+        <v>947.0351301578535</v>
       </c>
       <c r="G26" t="n">
-        <v>58.64847983903268</v>
+        <v>529.2769272525137</v>
       </c>
       <c r="H26" t="n">
-        <v>58.64847983903268</v>
+        <v>204.1878615069003</v>
       </c>
       <c r="I26" t="n">
         <v>58.64847983903268</v>
       </c>
       <c r="J26" t="n">
-        <v>191.5195554836914</v>
+        <v>191.5195554836917</v>
       </c>
       <c r="K26" t="n">
-        <v>511.4036588495826</v>
+        <v>511.4036588495831</v>
       </c>
       <c r="L26" t="n">
-        <v>960.5248027045162</v>
+        <v>960.5248027045168</v>
       </c>
       <c r="M26" t="n">
         <v>1476.865157096061</v>
@@ -6239,7 +6239,7 @@
         <v>1986.928440693069</v>
       </c>
       <c r="O26" t="n">
-        <v>2423.379097871209</v>
+        <v>2423.37909787121</v>
       </c>
       <c r="P26" t="n">
         <v>2758.205253222389</v>
@@ -6254,22 +6254,22 @@
         <v>2932.423991951634</v>
       </c>
       <c r="T26" t="n">
-        <v>2714.689361671259</v>
+        <v>2932.423991951634</v>
       </c>
       <c r="U26" t="n">
-        <v>2460.944024725069</v>
+        <v>2932.423991951634</v>
       </c>
       <c r="V26" t="n">
-        <v>2129.881137381498</v>
+        <v>2835.796968327225</v>
       </c>
       <c r="W26" t="n">
-        <v>2129.881137381498</v>
+        <v>2483.028313057111</v>
       </c>
       <c r="X26" t="n">
-        <v>2129.881137381498</v>
+        <v>2109.562554796031</v>
       </c>
       <c r="Y26" t="n">
-        <v>1739.741805405686</v>
+        <v>1719.42322282022</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>58.64847983903268</v>
       </c>
       <c r="J27" t="n">
-        <v>144.0922025519938</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K27" t="n">
-        <v>416.749977059176</v>
+        <v>331.3062543462149</v>
       </c>
       <c r="L27" t="n">
-        <v>844.7763992301791</v>
+        <v>759.332676517218</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.24226684198</v>
+        <v>1310.798544129019</v>
       </c>
       <c r="N27" t="n">
-        <v>1679.111897483381</v>
+        <v>1892.567085706059</v>
       </c>
       <c r="O27" t="n">
         <v>2144.900777065173</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2461.358357084433</v>
+        <v>227.556052687774</v>
       </c>
       <c r="C28" t="n">
-        <v>2461.358357084433</v>
+        <v>227.556052687774</v>
       </c>
       <c r="D28" t="n">
-        <v>2461.358357084433</v>
+        <v>227.556052687774</v>
       </c>
       <c r="E28" t="n">
-        <v>2461.358357084433</v>
+        <v>227.556052687774</v>
       </c>
       <c r="F28" t="n">
-        <v>2461.358357084433</v>
+        <v>227.556052687774</v>
       </c>
       <c r="G28" t="n">
-        <v>2461.358357084433</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="H28" t="n">
-        <v>2304.429970060981</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="I28" t="n">
-        <v>2182.586386374161</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="J28" t="n">
-        <v>2182.586386374161</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K28" t="n">
-        <v>2249.390496504865</v>
+        <v>125.452589969737</v>
       </c>
       <c r="L28" t="n">
-        <v>2390.403192225006</v>
+        <v>266.4652856898774</v>
       </c>
       <c r="M28" t="n">
-        <v>2549.470431517533</v>
+        <v>425.5325249824044</v>
       </c>
       <c r="N28" t="n">
-        <v>2710.190023814298</v>
+        <v>586.2521172791696</v>
       </c>
       <c r="O28" t="n">
-        <v>2842.624285005687</v>
+        <v>718.686378470558</v>
       </c>
       <c r="P28" t="n">
-        <v>2932.423991951634</v>
+        <v>808.4860854165053</v>
       </c>
       <c r="Q28" t="n">
-        <v>2932.423991951634</v>
+        <v>808.4860854165053</v>
       </c>
       <c r="R28" t="n">
-        <v>2932.423991951634</v>
+        <v>737.7658018682646</v>
       </c>
       <c r="S28" t="n">
-        <v>2932.423991951634</v>
+        <v>737.7658018682646</v>
       </c>
       <c r="T28" t="n">
-        <v>2932.423991951634</v>
+        <v>737.7658018682646</v>
       </c>
       <c r="U28" t="n">
-        <v>2932.423991951634</v>
+        <v>737.7658018682646</v>
       </c>
       <c r="V28" t="n">
-        <v>2932.423991951634</v>
+        <v>737.7658018682646</v>
       </c>
       <c r="W28" t="n">
-        <v>2643.006821914673</v>
+        <v>448.348631831304</v>
       </c>
       <c r="X28" t="n">
-        <v>2643.006821914673</v>
+        <v>448.348631831304</v>
       </c>
       <c r="Y28" t="n">
-        <v>2643.006821914673</v>
+        <v>227.556052687774</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1961.148036255672</v>
+        <v>1610.751109527929</v>
       </c>
       <c r="C29" t="n">
-        <v>1961.148036255672</v>
+        <v>1265.276417570314</v>
       </c>
       <c r="D29" t="n">
-        <v>1626.370162631719</v>
+        <v>930.4985439463608</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.069735016272</v>
+        <v>568.1981163309135</v>
       </c>
       <c r="F29" t="n">
-        <v>876.5716552094617</v>
+        <v>180.7000365241032</v>
       </c>
       <c r="G29" t="n">
-        <v>482.3012772869192</v>
+        <v>180.7000365241032</v>
       </c>
       <c r="H29" t="n">
-        <v>180.700036524103</v>
+        <v>180.7000365241032</v>
       </c>
       <c r="I29" t="n">
         <v>58.64847983903268</v>
       </c>
       <c r="J29" t="n">
-        <v>191.5195554836917</v>
+        <v>191.5195554836916</v>
       </c>
       <c r="K29" t="n">
         <v>511.4036588495831</v>
@@ -6470,13 +6470,13 @@
         <v>960.5248027045168</v>
       </c>
       <c r="M29" t="n">
-        <v>1476.865157096061</v>
+        <v>1476.865157096062</v>
       </c>
       <c r="N29" t="n">
         <v>1986.92844069307</v>
       </c>
       <c r="O29" t="n">
-        <v>2423.37909787121</v>
+        <v>2423.379097871209</v>
       </c>
       <c r="P29" t="n">
         <v>2758.205253222389</v>
@@ -6485,28 +6485,28 @@
         <v>2932.423991951634</v>
       </c>
       <c r="R29" t="n">
-        <v>2932.423991951634</v>
+        <v>2913.7984748879</v>
       </c>
       <c r="S29" t="n">
-        <v>2932.423991951634</v>
+        <v>2913.7984748879</v>
       </c>
       <c r="T29" t="n">
-        <v>2932.423991951634</v>
+        <v>2913.7984748879</v>
       </c>
       <c r="U29" t="n">
-        <v>2932.423991951634</v>
+        <v>2683.540962924506</v>
       </c>
       <c r="V29" t="n">
-        <v>2932.423991951634</v>
+        <v>2656.661380086543</v>
       </c>
       <c r="W29" t="n">
-        <v>2603.143161664317</v>
+        <v>2327.380549799226</v>
       </c>
       <c r="X29" t="n">
-        <v>2327.799543248687</v>
+        <v>1977.402616520943</v>
       </c>
       <c r="Y29" t="n">
-        <v>1961.148036255672</v>
+        <v>1610.751109527929</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1233.097059687618</v>
+        <v>988.2434418379959</v>
       </c>
       <c r="C30" t="n">
-        <v>1058.644030406491</v>
+        <v>813.7904125568689</v>
       </c>
       <c r="D30" t="n">
-        <v>909.7096207452398</v>
+        <v>664.8560028956176</v>
       </c>
       <c r="E30" t="n">
-        <v>750.4721657397843</v>
+        <v>505.6185478901622</v>
       </c>
       <c r="F30" t="n">
-        <v>603.9376077666692</v>
+        <v>359.0839899170471</v>
       </c>
       <c r="G30" t="n">
-        <v>466.1375031914069</v>
+        <v>221.2838853417849</v>
       </c>
       <c r="H30" t="n">
-        <v>361.7571715215879</v>
+        <v>116.9035536719658</v>
       </c>
       <c r="I30" t="n">
-        <v>303.5020976886548</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="J30" t="n">
-        <v>388.9458204016158</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K30" t="n">
-        <v>661.603594908798</v>
+        <v>117.8510661235374</v>
       </c>
       <c r="L30" t="n">
-        <v>1089.630017079801</v>
+        <v>545.8774882945405</v>
       </c>
       <c r="M30" t="n">
-        <v>1342.196973755964</v>
+        <v>1097.343355906341</v>
       </c>
       <c r="N30" t="n">
-        <v>1923.965515333004</v>
+        <v>1679.111897483381</v>
       </c>
       <c r="O30" t="n">
-        <v>2389.754394914796</v>
+        <v>2144.900777065173</v>
       </c>
       <c r="P30" t="n">
-        <v>2746.587967774787</v>
+        <v>2501.734349925165</v>
       </c>
       <c r="Q30" t="n">
-        <v>2932.423991951634</v>
+        <v>2687.570374102012</v>
       </c>
       <c r="R30" t="n">
-        <v>2889.040796895232</v>
+        <v>2644.18717904561</v>
       </c>
       <c r="S30" t="n">
-        <v>2732.911183777426</v>
+        <v>2488.057565927804</v>
       </c>
       <c r="T30" t="n">
-        <v>2534.476047267378</v>
+        <v>2289.622429417755</v>
       </c>
       <c r="U30" t="n">
-        <v>2306.313660638117</v>
+        <v>2061.460042788495</v>
       </c>
       <c r="V30" t="n">
-        <v>2071.161552406375</v>
+        <v>1826.307934556752</v>
       </c>
       <c r="W30" t="n">
-        <v>1816.924195678173</v>
+        <v>1572.070577828551</v>
       </c>
       <c r="X30" t="n">
-        <v>1609.07269547264</v>
+        <v>1364.219077623018</v>
       </c>
       <c r="Y30" t="n">
-        <v>1401.312396707686</v>
+        <v>1156.458778858064</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2302.775259739107</v>
+        <v>183.0737484386287</v>
       </c>
       <c r="C31" t="n">
-        <v>2302.775259739107</v>
+        <v>183.0737484386287</v>
       </c>
       <c r="D31" t="n">
-        <v>2176.146445309568</v>
+        <v>183.0737484386287</v>
       </c>
       <c r="E31" t="n">
-        <v>2176.146445309568</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="F31" t="n">
-        <v>2176.146445309568</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="G31" t="n">
-        <v>2176.146445309568</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="H31" t="n">
-        <v>2042.705883268913</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="I31" t="n">
-        <v>2042.705883268913</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="J31" t="n">
-        <v>2042.705883268913</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K31" t="n">
-        <v>2132.530410665257</v>
+        <v>148.4730072353765</v>
       </c>
       <c r="L31" t="n">
-        <v>2296.563523651037</v>
+        <v>312.5061202211563</v>
       </c>
       <c r="M31" t="n">
-        <v>2478.651180209204</v>
+        <v>494.5937767793228</v>
       </c>
       <c r="N31" t="n">
-        <v>2662.391189771608</v>
+        <v>678.3337863417273</v>
       </c>
       <c r="O31" t="n">
-        <v>2817.845868228636</v>
+        <v>833.7884647987551</v>
       </c>
       <c r="P31" t="n">
-        <v>2930.665992440223</v>
+        <v>946.6085890103417</v>
       </c>
       <c r="Q31" t="n">
-        <v>2932.423991951634</v>
+        <v>948.3665885217523</v>
       </c>
       <c r="R31" t="n">
-        <v>2811.912038226193</v>
+        <v>827.8546347963108</v>
       </c>
       <c r="S31" t="n">
-        <v>2811.912038226193</v>
+        <v>788.3065282806798</v>
       </c>
       <c r="T31" t="n">
-        <v>2811.912038226193</v>
+        <v>584.880228514582</v>
       </c>
       <c r="U31" t="n">
-        <v>2811.912038226193</v>
+        <v>584.880228514582</v>
       </c>
       <c r="V31" t="n">
-        <v>2580.715375003103</v>
+        <v>584.880228514582</v>
       </c>
       <c r="W31" t="n">
-        <v>2507.276985654327</v>
+        <v>584.880228514582</v>
       </c>
       <c r="X31" t="n">
-        <v>2302.775259739107</v>
+        <v>380.3785025993617</v>
       </c>
       <c r="Y31" t="n">
-        <v>2302.775259739107</v>
+        <v>183.0737484386287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1882.9699307654</v>
+        <v>1222.046347167077</v>
       </c>
       <c r="C32" t="n">
-        <v>1537.495238807786</v>
+        <v>876.5716552094621</v>
       </c>
       <c r="D32" t="n">
-        <v>1202.717365183832</v>
+        <v>876.5716552094621</v>
       </c>
       <c r="E32" t="n">
-        <v>840.4169375683855</v>
+        <v>876.5716552094621</v>
       </c>
       <c r="F32" t="n">
-        <v>452.9188577615752</v>
+        <v>876.5716552094621</v>
       </c>
       <c r="G32" t="n">
-        <v>58.64847983903268</v>
+        <v>482.3012772869195</v>
       </c>
       <c r="H32" t="n">
-        <v>58.64847983903268</v>
+        <v>180.7000365241032</v>
       </c>
       <c r="I32" t="n">
         <v>58.64847983903268</v>
@@ -6722,28 +6722,28 @@
         <v>2932.423991951634</v>
       </c>
       <c r="R32" t="n">
-        <v>2913.7984748879</v>
+        <v>2932.423991951634</v>
       </c>
       <c r="S32" t="n">
-        <v>2903.634941485781</v>
+        <v>2784.41955766324</v>
       </c>
       <c r="T32" t="n">
-        <v>2903.634941485781</v>
+        <v>2590.172752365663</v>
       </c>
       <c r="U32" t="n">
-        <v>2903.634941485781</v>
+        <v>2359.915240402269</v>
       </c>
       <c r="V32" t="n">
-        <v>2596.059879125008</v>
+        <v>2052.340178041496</v>
       </c>
       <c r="W32" t="n">
-        <v>2596.059879125008</v>
+        <v>1723.059347754179</v>
       </c>
       <c r="X32" t="n">
-        <v>2246.081945846725</v>
+        <v>1373.081414475896</v>
       </c>
       <c r="Y32" t="n">
-        <v>2246.081945846725</v>
+        <v>1373.081414475896</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>58.64847983903268</v>
       </c>
       <c r="J33" t="n">
-        <v>144.0922025519938</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K33" t="n">
-        <v>416.749977059176</v>
+        <v>331.3062543462149</v>
       </c>
       <c r="L33" t="n">
-        <v>844.7763992301791</v>
+        <v>759.332676517218</v>
       </c>
       <c r="M33" t="n">
-        <v>1097.343355906341</v>
+        <v>1310.798544129019</v>
       </c>
       <c r="N33" t="n">
-        <v>1679.111897483381</v>
+        <v>1892.567085706059</v>
       </c>
       <c r="O33" t="n">
-        <v>2144.900777065173</v>
+        <v>2358.355965287851</v>
       </c>
       <c r="P33" t="n">
         <v>2501.734349925165</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2445.991461775108</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="C34" t="n">
-        <v>2445.991461775108</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="D34" t="n">
-        <v>2445.991461775108</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="E34" t="n">
-        <v>2321.566193175512</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="F34" t="n">
-        <v>2321.566193175512</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="G34" t="n">
-        <v>2176.146445309568</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="H34" t="n">
-        <v>2042.705883268913</v>
+        <v>78.81420073523802</v>
       </c>
       <c r="I34" t="n">
-        <v>2042.705883268913</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="J34" t="n">
-        <v>2042.705883268913</v>
+        <v>58.64847983903268</v>
       </c>
       <c r="K34" t="n">
-        <v>2132.530410665257</v>
+        <v>148.4730072353765</v>
       </c>
       <c r="L34" t="n">
-        <v>2296.563523651037</v>
+        <v>312.5061202211563</v>
       </c>
       <c r="M34" t="n">
-        <v>2478.651180209204</v>
+        <v>494.5937767793228</v>
       </c>
       <c r="N34" t="n">
-        <v>2662.391189771608</v>
+        <v>678.3337863417273</v>
       </c>
       <c r="O34" t="n">
-        <v>2817.845868228636</v>
+        <v>833.7884647987551</v>
       </c>
       <c r="P34" t="n">
-        <v>2930.665992440223</v>
+        <v>946.6085890103417</v>
       </c>
       <c r="Q34" t="n">
-        <v>2932.423991951634</v>
+        <v>948.3665885217523</v>
       </c>
       <c r="R34" t="n">
-        <v>2932.423991951634</v>
+        <v>948.3665885217523</v>
       </c>
       <c r="S34" t="n">
-        <v>2743.230666030592</v>
+        <v>948.3665885217523</v>
       </c>
       <c r="T34" t="n">
-        <v>2743.230666030592</v>
+        <v>948.3665885217523</v>
       </c>
       <c r="U34" t="n">
-        <v>2743.230666030592</v>
+        <v>682.685833745277</v>
       </c>
       <c r="V34" t="n">
-        <v>2743.230666030592</v>
+        <v>682.685833745277</v>
       </c>
       <c r="W34" t="n">
-        <v>2743.230666030592</v>
+        <v>416.7564886911135</v>
       </c>
       <c r="X34" t="n">
-        <v>2538.728940115372</v>
+        <v>212.2547627758932</v>
       </c>
       <c r="Y34" t="n">
-        <v>2538.728940115372</v>
+        <v>212.2547627758932</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1048.887761099723</v>
+        <v>753.7570929309848</v>
       </c>
       <c r="C35" t="n">
-        <v>703.4130691421082</v>
+        <v>408.2824009733702</v>
       </c>
       <c r="D35" t="n">
-        <v>703.4130691421082</v>
+        <v>408.2824009733702</v>
       </c>
       <c r="E35" t="n">
-        <v>703.4130691421082</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="F35" t="n">
-        <v>347.5832141207391</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="G35" t="n">
-        <v>347.5832141207391</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="H35" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="I35" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="J35" t="n">
-        <v>178.853049002582</v>
+        <v>109.4051496075699</v>
       </c>
       <c r="K35" t="n">
-        <v>498.7371523684733</v>
+        <v>429.2892529734611</v>
       </c>
       <c r="L35" t="n">
-        <v>947.858296223407</v>
+        <v>878.4103968283949</v>
       </c>
       <c r="M35" t="n">
-        <v>1019.180252457048</v>
+        <v>1394.75075121994</v>
       </c>
       <c r="N35" t="n">
-        <v>1529.243536054056</v>
+        <v>1904.814034816947</v>
       </c>
       <c r="O35" t="n">
-        <v>1964.272512544967</v>
+        <v>1964.272512544969</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896149</v>
       </c>
       <c r="Q35" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896149</v>
       </c>
       <c r="R35" t="n">
-        <v>2280.473150832413</v>
+        <v>2280.473150832414</v>
       </c>
       <c r="S35" t="n">
-        <v>2280.473150832413</v>
+        <v>2280.473150832414</v>
       </c>
       <c r="T35" t="n">
-        <v>2086.226345534835</v>
+        <v>2086.226345534837</v>
       </c>
       <c r="U35" t="n">
-        <v>2086.226345534835</v>
+        <v>1855.968833571443</v>
       </c>
       <c r="V35" t="n">
-        <v>1778.651283174062</v>
+        <v>1548.39377121067</v>
       </c>
       <c r="W35" t="n">
-        <v>1778.651283174062</v>
+        <v>1219.112940923353</v>
       </c>
       <c r="X35" t="n">
-        <v>1778.651283174062</v>
+        <v>1120.408599923999</v>
       </c>
       <c r="Y35" t="n">
-        <v>1411.999776181047</v>
+        <v>753.7570929309848</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>811.1621604773054</v>
+        <v>811.1621604773065</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1969561789756</v>
+        <v>660.1969561789766</v>
       </c>
       <c r="D36" t="n">
-        <v>534.7503715005215</v>
+        <v>534.7503715005225</v>
       </c>
       <c r="E36" t="n">
-        <v>399.0007414778631</v>
+        <v>399.000741477864</v>
       </c>
       <c r="F36" t="n">
-        <v>275.9540084875456</v>
+        <v>275.9540084875461</v>
       </c>
       <c r="G36" t="n">
-        <v>161.6417288950806</v>
+        <v>161.6417288950809</v>
       </c>
       <c r="H36" t="n">
-        <v>80.74922220805882</v>
+        <v>80.749222208059</v>
       </c>
       <c r="I36" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="J36" t="n">
-        <v>131.425696070884</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="K36" t="n">
-        <v>404.0834705780662</v>
+        <v>318.6397478651052</v>
       </c>
       <c r="L36" t="n">
-        <v>745.9071236222279</v>
+        <v>746.6661700361083</v>
       </c>
       <c r="M36" t="n">
-        <v>1297.372991234029</v>
+        <v>1298.132037647909</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.399911538325</v>
+        <v>1867.158957952206</v>
       </c>
       <c r="O36" t="n">
-        <v>1942.265095036155</v>
+        <v>1943.024141450036</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896149</v>
       </c>
       <c r="Q36" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896149</v>
       </c>
       <c r="R36" t="n">
-        <v>2279.203297822542</v>
+        <v>2279.203297822544</v>
       </c>
       <c r="S36" t="n">
-        <v>2146.561509687533</v>
+        <v>2146.561509687534</v>
       </c>
       <c r="T36" t="n">
-        <v>1971.614198160282</v>
+        <v>1971.614198160283</v>
       </c>
       <c r="U36" t="n">
-        <v>1766.939636513818</v>
+        <v>1766.93963651382</v>
       </c>
       <c r="V36" t="n">
-        <v>1555.275353264873</v>
+        <v>1555.275353264875</v>
       </c>
       <c r="W36" t="n">
-        <v>1324.525821519469</v>
+        <v>1324.52582151947</v>
       </c>
       <c r="X36" t="n">
-        <v>1140.162146296733</v>
+        <v>1140.162146296734</v>
       </c>
       <c r="Y36" t="n">
-        <v>955.8896725145762</v>
+        <v>955.8896725145775</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1532.782681728539</v>
+        <v>314.3053429783034</v>
       </c>
       <c r="C37" t="n">
-        <v>1532.782681728539</v>
+        <v>168.8569850331936</v>
       </c>
       <c r="D37" t="n">
-        <v>1532.782681728539</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="E37" t="n">
-        <v>1532.782681728539</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="F37" t="n">
-        <v>1409.380559213426</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="G37" t="n">
-        <v>1409.380559213426</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="H37" t="n">
-        <v>1409.380559213426</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="I37" t="n">
-        <v>1409.380559213426</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="J37" t="n">
-        <v>1409.380559213426</v>
+        <v>45.98197335792297</v>
       </c>
       <c r="K37" t="n">
-        <v>1499.20508660977</v>
+        <v>135.8065007542668</v>
       </c>
       <c r="L37" t="n">
-        <v>1663.23819959555</v>
+        <v>299.8396137400466</v>
       </c>
       <c r="M37" t="n">
-        <v>1845.325856153716</v>
+        <v>481.9272702982131</v>
       </c>
       <c r="N37" t="n">
-        <v>2029.065865716121</v>
+        <v>665.6672798606177</v>
       </c>
       <c r="O37" t="n">
-        <v>2184.520544173149</v>
+        <v>821.1219583176454</v>
       </c>
       <c r="P37" t="n">
-        <v>2297.340668384736</v>
+        <v>933.942082529232</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.098667896147</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="R37" t="n">
-        <v>2178.586714170705</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.586714170705</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="T37" t="n">
-        <v>1975.160414404608</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="U37" t="n">
-        <v>1709.479659628133</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.479659628133</v>
+        <v>935.7000820406427</v>
       </c>
       <c r="W37" t="n">
-        <v>1532.782681728539</v>
+        <v>669.7707369864791</v>
       </c>
       <c r="X37" t="n">
-        <v>1532.782681728539</v>
+        <v>669.7707369864791</v>
       </c>
       <c r="Y37" t="n">
-        <v>1532.782681728539</v>
+        <v>472.465982825746</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1948.481529774563</v>
+        <v>380.7598469818763</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.481529774563</v>
+        <v>380.7598469818763</v>
       </c>
       <c r="D38" t="n">
-        <v>1613.703656150609</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="E38" t="n">
-        <v>1251.403228535162</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="F38" t="n">
-        <v>863.9051487283519</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="G38" t="n">
-        <v>469.6347708058095</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="H38" t="n">
-        <v>168.0335300429933</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="I38" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="J38" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="K38" t="n">
         <v>365.8660767238142</v>
@@ -7184,40 +7184,40 @@
         <v>1331.327574970293</v>
       </c>
       <c r="N38" t="n">
-        <v>1527.821855366828</v>
+        <v>1527.821855366829</v>
       </c>
       <c r="O38" t="n">
-        <v>1964.272512544967</v>
+        <v>1964.272512544968</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="Q38" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="R38" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="S38" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="T38" t="n">
-        <v>2256.056592135336</v>
+        <v>2104.85186259857</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.056592135336</v>
+        <v>1874.594350635176</v>
       </c>
       <c r="V38" t="n">
-        <v>1948.481529774563</v>
+        <v>1567.019288274403</v>
       </c>
       <c r="W38" t="n">
-        <v>1948.481529774563</v>
+        <v>1460.501302334498</v>
       </c>
       <c r="X38" t="n">
-        <v>1948.481529774563</v>
+        <v>1110.523369056216</v>
       </c>
       <c r="Y38" t="n">
-        <v>1948.481529774563</v>
+        <v>743.871862063201</v>
       </c>
     </row>
     <row r="39">
@@ -7230,64 +7230,64 @@
         <v>811.1621604773055</v>
       </c>
       <c r="C39" t="n">
-        <v>660.1969561789757</v>
+        <v>660.1969561789766</v>
       </c>
       <c r="D39" t="n">
-        <v>534.7503715005216</v>
+        <v>534.7503715005224</v>
       </c>
       <c r="E39" t="n">
-        <v>399.0007414778635</v>
+        <v>399.000741477864</v>
       </c>
       <c r="F39" t="n">
-        <v>275.9540084875457</v>
+        <v>275.954008487546</v>
       </c>
       <c r="G39" t="n">
-        <v>161.6417288950806</v>
+        <v>161.6417288950809</v>
       </c>
       <c r="H39" t="n">
-        <v>80.74922220805882</v>
+        <v>80.74922220805897</v>
       </c>
       <c r="I39" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="J39" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="K39" t="n">
-        <v>56.81916322265229</v>
+        <v>56.81916322265231</v>
       </c>
       <c r="L39" t="n">
-        <v>484.8455853936555</v>
+        <v>355.9834275382665</v>
       </c>
       <c r="M39" t="n">
-        <v>1036.311453005456</v>
+        <v>907.4492951500674</v>
       </c>
       <c r="N39" t="n">
-        <v>1605.338373309753</v>
+        <v>1476.476215454364</v>
       </c>
       <c r="O39" t="n">
-        <v>1756.429070859308</v>
+        <v>1942.265095036156</v>
       </c>
       <c r="P39" t="n">
-        <v>2113.2626437193</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="Q39" t="n">
-        <v>2299.098667896147</v>
+        <v>2299.098667896148</v>
       </c>
       <c r="R39" t="n">
-        <v>2279.203297822542</v>
+        <v>2279.203297822543</v>
       </c>
       <c r="S39" t="n">
-        <v>2146.561509687533</v>
+        <v>2146.561509687534</v>
       </c>
       <c r="T39" t="n">
-        <v>1971.614198160282</v>
+        <v>1971.614198160283</v>
       </c>
       <c r="U39" t="n">
-        <v>1766.939636513818</v>
+        <v>1766.939636513819</v>
       </c>
       <c r="V39" t="n">
-        <v>1555.275353264873</v>
+        <v>1555.275353264874</v>
       </c>
       <c r="W39" t="n">
         <v>1324.525821519469</v>
@@ -7296,7 +7296,7 @@
         <v>1140.162146296733</v>
       </c>
       <c r="Y39" t="n">
-        <v>955.8896725145763</v>
+        <v>955.8896725145764</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.4570743883719</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="C40" t="n">
-        <v>269.0087164432622</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="D40" t="n">
-        <v>269.0087164432622</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="E40" t="n">
-        <v>269.0087164432622</v>
+        <v>191.4017212238671</v>
       </c>
       <c r="F40" t="n">
-        <v>191.401721223867</v>
+        <v>191.4017212238671</v>
       </c>
       <c r="G40" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="H40" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="I40" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="J40" t="n">
-        <v>45.98197335792293</v>
+        <v>45.98197335792295</v>
       </c>
       <c r="K40" t="n">
-        <v>135.8065007542668</v>
+        <v>135.8065007542667</v>
       </c>
       <c r="L40" t="n">
-        <v>299.8396137400468</v>
+        <v>299.8396137400466</v>
       </c>
       <c r="M40" t="n">
-        <v>481.9272702982134</v>
+        <v>481.927270298213</v>
       </c>
       <c r="N40" t="n">
-        <v>665.6672798606182</v>
+        <v>665.6672798606176</v>
       </c>
       <c r="O40" t="n">
-        <v>821.1219583176462</v>
+        <v>821.1219583176453</v>
       </c>
       <c r="P40" t="n">
-        <v>933.9420825292329</v>
+        <v>933.9420825292319</v>
       </c>
       <c r="Q40" t="n">
-        <v>935.7000820406437</v>
+        <v>935.7000820406425</v>
       </c>
       <c r="R40" t="n">
-        <v>815.1881283152024</v>
+        <v>935.7000820406425</v>
       </c>
       <c r="S40" t="n">
-        <v>815.1881283152024</v>
+        <v>935.7000820406425</v>
       </c>
       <c r="T40" t="n">
-        <v>611.7618285491047</v>
+        <v>732.2737822745447</v>
       </c>
       <c r="U40" t="n">
-        <v>611.7618285491047</v>
+        <v>466.5930274980694</v>
       </c>
       <c r="V40" t="n">
-        <v>611.7618285491047</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="W40" t="n">
-        <v>611.7618285491047</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="X40" t="n">
-        <v>611.7618285491047</v>
+        <v>235.3963642749796</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.4570743883719</v>
+        <v>235.3963642749796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.9936305502098</v>
+        <v>476.6805533841247</v>
       </c>
       <c r="C41" t="n">
-        <v>827.9936305502098</v>
+        <v>247.4190329031105</v>
       </c>
       <c r="D41" t="n">
-        <v>827.9936305502098</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="E41" t="n">
-        <v>827.9936305502098</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="F41" t="n">
-        <v>598.7321100691954</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="G41" t="n">
-        <v>369.470589588181</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="H41" t="n">
-        <v>140.2090691071667</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="I41" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="J41" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="K41" t="n">
-        <v>18.15751242209634</v>
+        <v>97.22966627732504</v>
       </c>
       <c r="L41" t="n">
-        <v>135.8466652659031</v>
+        <v>321.928882500767</v>
       </c>
       <c r="M41" t="n">
-        <v>207.1686214995437</v>
+        <v>546.6280987242091</v>
       </c>
       <c r="N41" t="n">
-        <v>284.2584499286871</v>
+        <v>623.7179271533524</v>
       </c>
       <c r="O41" t="n">
-        <v>508.9576661521294</v>
+        <v>683.1764048813741</v>
       </c>
       <c r="P41" t="n">
-        <v>733.6568823755716</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="Q41" t="n">
-        <v>907.875621104817</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="R41" t="n">
-        <v>907.875621104817</v>
+        <v>889.250104041082</v>
       </c>
       <c r="S41" t="n">
-        <v>827.9936305502098</v>
+        <v>889.250104041082</v>
       </c>
       <c r="T41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
       <c r="U41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
       <c r="V41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
       <c r="W41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
       <c r="X41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
       <c r="Y41" t="n">
-        <v>827.9936305502098</v>
+        <v>705.9420738651388</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>169.1227167204261</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="C42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="D42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="E42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="F42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="G42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="H42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="I42" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="J42" t="n">
-        <v>103.6012351350574</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="K42" t="n">
-        <v>114.4384249997868</v>
+        <v>214.4979338626018</v>
       </c>
       <c r="L42" t="n">
-        <v>175.3329053203653</v>
+        <v>275.3924141831803</v>
       </c>
       <c r="M42" t="n">
-        <v>400.0321215438075</v>
+        <v>500.0916304066223</v>
       </c>
       <c r="N42" t="n">
-        <v>624.7313377672498</v>
+        <v>607.3112213835442</v>
       </c>
       <c r="O42" t="n">
-        <v>849.430553990692</v>
+        <v>683.1764048813741</v>
       </c>
       <c r="P42" t="n">
-        <v>907.875621104817</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="Q42" t="n">
-        <v>907.875621104817</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="R42" t="n">
-        <v>907.875621104817</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="S42" t="n">
-        <v>907.875621104817</v>
+        <v>818.3943029020431</v>
       </c>
       <c r="T42" t="n">
-        <v>732.928309577566</v>
+        <v>643.4469913747919</v>
       </c>
       <c r="U42" t="n">
-        <v>528.2537479311025</v>
+        <v>643.4469913747919</v>
       </c>
       <c r="V42" t="n">
-        <v>398.3842372014406</v>
+        <v>431.7827081258462</v>
       </c>
       <c r="W42" t="n">
-        <v>169.1227167204261</v>
+        <v>202.5211876448321</v>
       </c>
       <c r="X42" t="n">
-        <v>169.1227167204261</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="Y42" t="n">
-        <v>169.1227167204261</v>
+        <v>18.15751242209632</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.15751242209634</v>
+        <v>538.062075911454</v>
       </c>
       <c r="C43" t="n">
-        <v>18.15751242209634</v>
+        <v>392.6137179663443</v>
       </c>
       <c r="D43" t="n">
-        <v>18.15751242209634</v>
+        <v>265.9849035368056</v>
       </c>
       <c r="E43" t="n">
-        <v>18.15751242209634</v>
+        <v>141.5596349372096</v>
       </c>
       <c r="F43" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="G43" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="H43" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="I43" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="J43" t="n">
-        <v>18.15751242209634</v>
+        <v>18.15751242209632</v>
       </c>
       <c r="K43" t="n">
-        <v>107.9820398184403</v>
+        <v>107.9820398184401</v>
       </c>
       <c r="L43" t="n">
-        <v>272.0151528042203</v>
+        <v>272.01515280422</v>
       </c>
       <c r="M43" t="n">
-        <v>454.1028093623868</v>
+        <v>454.1028093623864</v>
       </c>
       <c r="N43" t="n">
-        <v>637.8428189247916</v>
+        <v>637.842818924791</v>
       </c>
       <c r="O43" t="n">
-        <v>793.2974973818195</v>
+        <v>793.2974973818187</v>
       </c>
       <c r="P43" t="n">
-        <v>906.1176215934063</v>
+        <v>906.1176215934055</v>
       </c>
       <c r="Q43" t="n">
-        <v>907.875621104817</v>
+        <v>907.8756211048161</v>
       </c>
       <c r="R43" t="n">
-        <v>787.3636673793758</v>
+        <v>787.3636673793746</v>
       </c>
       <c r="S43" t="n">
-        <v>598.1703414583333</v>
+        <v>598.170341458332</v>
       </c>
       <c r="T43" t="n">
-        <v>394.7440416922356</v>
+        <v>538.062075911454</v>
       </c>
       <c r="U43" t="n">
-        <v>394.7440416922356</v>
+        <v>538.062075911454</v>
       </c>
       <c r="V43" t="n">
-        <v>165.4825212112212</v>
+        <v>538.062075911454</v>
       </c>
       <c r="W43" t="n">
-        <v>165.4825212112212</v>
+        <v>538.062075911454</v>
       </c>
       <c r="X43" t="n">
-        <v>165.4825212112212</v>
+        <v>538.062075911454</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.15751242209634</v>
+        <v>538.062075911454</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381.665720257874</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="C44" t="n">
-        <v>296.7740115702136</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="D44" t="n">
-        <v>296.7740115702136</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="E44" t="n">
-        <v>200.3937791818615</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="F44" t="n">
-        <v>200.3937791818615</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="G44" t="n">
         <v>104.0135467935095</v>
@@ -7649,22 +7649,22 @@
         <v>7.63331440515748</v>
       </c>
       <c r="K44" t="n">
-        <v>27.45121639184513</v>
+        <v>7.63331440515748</v>
       </c>
       <c r="L44" t="n">
-        <v>63.08775784183297</v>
+        <v>43.26985585514532</v>
       </c>
       <c r="M44" t="n">
-        <v>134.4097140754736</v>
+        <v>137.7321216189691</v>
       </c>
       <c r="N44" t="n">
-        <v>211.499542504617</v>
+        <v>214.8219500481125</v>
       </c>
       <c r="O44" t="n">
-        <v>270.9580202326387</v>
+        <v>287.2034544940502</v>
       </c>
       <c r="P44" t="n">
-        <v>287.2034544940502</v>
+        <v>381.665720257874</v>
       </c>
       <c r="Q44" t="n">
         <v>381.665720257874</v>
@@ -7679,19 +7679,19 @@
         <v>381.665720257874</v>
       </c>
       <c r="U44" t="n">
-        <v>381.665720257874</v>
+        <v>296.7740115702136</v>
       </c>
       <c r="V44" t="n">
-        <v>381.665720257874</v>
+        <v>296.7740115702136</v>
       </c>
       <c r="W44" t="n">
-        <v>381.665720257874</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="X44" t="n">
-        <v>381.665720257874</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.665720257874</v>
+        <v>104.0135467935095</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>188.9052554811699</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="C45" t="n">
-        <v>162.2686206264426</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="D45" t="n">
-        <v>162.2686206264426</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="E45" t="n">
-        <v>162.2686206264426</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="F45" t="n">
-        <v>162.2686206264426</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="G45" t="n">
-        <v>162.2686206264426</v>
+        <v>7.63331440515748</v>
       </c>
       <c r="H45" t="n">
-        <v>65.88838823809058</v>
+        <v>7.63331440515748</v>
       </c>
       <c r="I45" t="n">
         <v>7.63331440515748</v>
@@ -7728,7 +7728,7 @@
         <v>7.63331440515748</v>
       </c>
       <c r="K45" t="n">
-        <v>18.47050426988682</v>
+        <v>18.47050426988687</v>
       </c>
       <c r="L45" t="n">
         <v>79.36498459046538</v>
@@ -7758,19 +7758,19 @@
         <v>381.665720257874</v>
       </c>
       <c r="U45" t="n">
-        <v>285.2854878695219</v>
+        <v>381.665720257874</v>
       </c>
       <c r="V45" t="n">
-        <v>285.2854878695219</v>
+        <v>381.665720257874</v>
       </c>
       <c r="W45" t="n">
-        <v>285.2854878695219</v>
+        <v>296.7740115702136</v>
       </c>
       <c r="X45" t="n">
-        <v>285.2854878695219</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="Y45" t="n">
-        <v>285.2854878695219</v>
+        <v>104.0135467935095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="C46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="D46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="E46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="F46" t="n">
-        <v>7.63331440515748</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="G46" t="n">
-        <v>7.63331440515748</v>
+        <v>104.0135467935095</v>
       </c>
       <c r="H46" t="n">
         <v>7.63331440515748</v>
@@ -7807,16 +7807,16 @@
         <v>7.63331440515748</v>
       </c>
       <c r="K46" t="n">
+        <v>7.63331440515748</v>
+      </c>
+      <c r="L46" t="n">
         <v>8.479216020455311</v>
       </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
         <v>102.9414817842791</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>197.4037475481029</v>
-      </c>
-      <c r="N46" t="n">
-        <v>291.8660133119267</v>
       </c>
       <c r="O46" t="n">
         <v>291.8660133119267</v>
@@ -7828,28 +7828,28 @@
         <v>381.665720257874</v>
       </c>
       <c r="R46" t="n">
+        <v>381.665720257874</v>
+      </c>
+      <c r="S46" t="n">
+        <v>381.665720257874</v>
+      </c>
+      <c r="T46" t="n">
         <v>285.2854878695219</v>
       </c>
-      <c r="S46" t="n">
-        <v>188.9052554811699</v>
-      </c>
-      <c r="T46" t="n">
-        <v>188.9052554811699</v>
-      </c>
       <c r="U46" t="n">
-        <v>188.9052554811699</v>
+        <v>285.2854878695219</v>
       </c>
       <c r="V46" t="n">
-        <v>188.9052554811699</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="W46" t="n">
-        <v>188.9052554811699</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
       <c r="Y46" t="n">
-        <v>92.52502309281789</v>
+        <v>200.3937791818615</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>39.78424472125621</v>
       </c>
       <c r="K12" t="n">
-        <v>96.01938270982666</v>
+        <v>136.9855600742713</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>129.7755273822485</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>99.95393730273082</v>
       </c>
       <c r="N12" t="n">
-        <v>82.98248631523504</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>22.36413200166024</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8927,10 @@
         <v>34.88340745019593</v>
       </c>
       <c r="K14" t="n">
-        <v>1.030156646021993</v>
+        <v>33.57272539958013</v>
       </c>
       <c r="L14" t="n">
-        <v>12.95559179540025</v>
+        <v>155.2885969485017</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>131.2260350514979</v>
       </c>
       <c r="P14" t="n">
-        <v>174.8755739066596</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>39.78424472125621</v>
       </c>
       <c r="K15" t="n">
-        <v>180.3384470346214</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>129.7755273822485</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>99.95393730273085</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>114.6536049809845</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>22.33195509328678</v>
       </c>
       <c r="Q15" t="n">
-        <v>208.7407097262894</v>
+        <v>22.36413200166024</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,19 +9170,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>125.1373042653179</v>
+        <v>428.8306535556037</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>36.33646669096996</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,25 +9243,25 @@
         <v>39.78424472125621</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>447.759699000563</v>
+        <v>447.7596990005633</v>
       </c>
       <c r="N18" t="n">
-        <v>25.24702554730436</v>
+        <v>266.9577129088527</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.36413200166024</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.88340745019593</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.3343278336609</v>
       </c>
       <c r="M20" t="n">
-        <v>336.3998544979207</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>155.2290440684316</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>91.9442274225492</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>163.7869718958195</v>
+        <v>437.8069182491613</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>22.36413200166024</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,10 +9963,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>177.4242824893731</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>178.2510180417018</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>48.85393577755082</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>163.78697189582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>163.7869718958195</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>102.8514674049092</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>98.94722184377864</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>379.3641401645356</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>283.7668411349325</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>466.4720498256307</v>
+        <v>466.4720498256312</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>317.6960550905644</v>
       </c>
       <c r="Q36" t="n">
         <v>22.36413200166024</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>120.6105575428196</v>
+        <v>120.6105575428205</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10905,22 +10905,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>240.676549489935</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>466.4720498256307</v>
+        <v>466.472049825631</v>
       </c>
       <c r="O39" t="n">
-        <v>75.98536772901591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>22.36413200166024</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,25 +11060,25 @@
         <v>34.88340745019593</v>
       </c>
       <c r="K41" t="n">
-        <v>1.030156646021993</v>
+        <v>80.901019126051</v>
       </c>
       <c r="L41" t="n">
-        <v>82.88142565032213</v>
+        <v>190.9723987610648</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>154.9265252422236</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>166.9098368640612</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>210.5593757192228</v>
+        <v>210.5593757192226</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>36.33646669096996</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>39.78424472125621</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>187.377001591693</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>135.6377391152941</v>
+        <v>135.6377391152939</v>
       </c>
       <c r="N42" t="n">
-        <v>118.6662881277983</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>150.3374067935478</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>17.06023758350624</v>
+        <v>184.9937215323113</v>
       </c>
       <c r="Q42" t="n">
         <v>22.36413200166024</v>
@@ -11297,25 +11297,25 @@
         <v>34.88340745019593</v>
       </c>
       <c r="K44" t="n">
-        <v>21.048239460858</v>
+        <v>1.030156646021993</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>23.37405003048806</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.05356234132931</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>79.0069005074871</v>
       </c>
       <c r="Q44" t="n">
-        <v>131.7528967554385</v>
+        <v>36.33646669096996</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11455,10 +11455,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>40.11931329878737</v>
+        <v>39.26486722272895</v>
       </c>
       <c r="L46" t="n">
-        <v>115.4540652220427</v>
+        <v>20.89208123363262</v>
       </c>
       <c r="M46" t="n">
         <v>113.2521118905535</v>
@@ -11467,7 +11467,7 @@
         <v>104.8911243869453</v>
       </c>
       <c r="O46" t="n">
-        <v>29.2696853644801</v>
+        <v>124.6861154289486</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>163.397938157042</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>213.4464509414869</v>
+        <v>357.5304387926757</v>
       </c>
       <c r="F11" t="n">
         <v>215.5909422780705</v>
@@ -23273,10 +23273,10 @@
         <v>222.2955174126453</v>
       </c>
       <c r="H11" t="n">
-        <v>321.8381750881572</v>
+        <v>130.5530716245163</v>
       </c>
       <c r="I11" t="n">
-        <v>144.0839878511889</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23337,22 +23337,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.89130687720002</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>74.62325450415477</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>103.3365283531209</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>60.40987969727863</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>36.3933512393545</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.2184971202539</v>
@@ -23434,7 +23434,7 @@
         <v>155.3591031532178</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>132.2198272546962</v>
       </c>
       <c r="J13" t="n">
         <v>38.74468587558587</v>
@@ -23461,7 +23461,7 @@
         <v>21.47718965073622</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>142.5597809211561</v>
       </c>
       <c r="S13" t="n">
         <v>210.5543393948013</v>
@@ -23473,10 +23473,10 @@
         <v>94.99179049803874</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>187.4180563941936</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>95.23789487295002</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>215.5909422780705</v>
       </c>
       <c r="G14" t="n">
         <v>222.2955174126453</v>
@@ -23546,16 +23546,16 @@
         <v>169.7773366784791</v>
       </c>
       <c r="T14" t="n">
-        <v>191.1573526979849</v>
+        <v>215.5572839775709</v>
       </c>
       <c r="U14" t="n">
-        <v>59.92278011308761</v>
+        <v>251.2078835767286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>324.841037437827</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,16 +23574,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5.251283868960002</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>120.2872597626719</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>57.67252309460378</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.2184971202539</v>
       </c>
       <c r="H16" t="n">
         <v>155.3591031532178</v>
@@ -23707,10 +23707,10 @@
         <v>224.644983501406</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2768939616797</v>
+        <v>117.7929748309048</v>
       </c>
       <c r="V16" t="n">
-        <v>162.3385354271686</v>
+        <v>60.85253986018702</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>34.42455192539617</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>27.29954988845381</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>41.69220862606595</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>169.7773366784791</v>
+        <v>157.2553757703039</v>
       </c>
       <c r="T17" t="n">
-        <v>147.2491673004332</v>
+        <v>215.5572839775709</v>
       </c>
       <c r="U17" t="n">
         <v>251.2078835767286</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23814,19 +23814,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>65.08751814176951</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>113.7646502474</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4221035295096</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>103.3365283531209</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23871,13 +23871,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>155.3591031532178</v>
       </c>
       <c r="I19" t="n">
-        <v>132.2198272546962</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>38.74468587558587</v>
@@ -23941,22 +23941,22 @@
         <v>210.5543393948013</v>
       </c>
       <c r="T19" t="n">
-        <v>224.644983501406</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2768939616797</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>91.37084780350273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>58.81988997553643</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23972,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>65.74250372144917</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.5806208762863</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>144.0839878511889</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>41.69220862606595</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>169.7773366784791</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2078835767286</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.675133910907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>48.80020639708067</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>89.07738244317953</v>
       </c>
       <c r="G22" t="n">
         <v>167.2184971202539</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3591031532178</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>132.2198272546962</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>38.74468587558587</v>
@@ -24175,7 +24175,7 @@
         <v>142.5597809211561</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>210.5543393948013</v>
       </c>
       <c r="T22" t="n">
         <v>224.644983501406</v>
@@ -24184,7 +24184,7 @@
         <v>286.2768939616797</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>218.2849316954809</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>41.69220862606595</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2078835767286</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>310.3119743535433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>68.07053892103836</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>76.4638993814953</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>132.2198272546962</v>
       </c>
       <c r="J25" t="n">
         <v>38.74468587558587</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.47718965073622</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>142.5597809211561</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24443,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>227.2137985581574</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5806208762863</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>321.8381750881572</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>144.0839878511889</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,19 +24494,19 @@
         <v>169.7773366784791</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.5572839775709</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2078835767286</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>232.0915050819704</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2184971202539</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>155.3591031532178</v>
       </c>
       <c r="I28" t="n">
-        <v>11.59467940474413</v>
+        <v>132.2198272546962</v>
       </c>
       <c r="J28" t="n">
         <v>38.74468587558587</v>
@@ -24646,7 +24646,7 @@
         <v>21.47718965073622</v>
       </c>
       <c r="R28" t="n">
-        <v>142.5597809211561</v>
+        <v>72.54670020839785</v>
       </c>
       <c r="S28" t="n">
         <v>210.5543393948013</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>359.4808949305113</v>
+        <v>359.4808949305115</v>
       </c>
       <c r="C29" t="n">
-        <v>342.0199450380383</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>390.3276741433172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>298.5852283551881</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.43926189309668</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>146.5243899455099</v>
+        <v>146.52438994551</v>
       </c>
       <c r="T29" t="n">
-        <v>192.3043372446016</v>
+        <v>192.3043372446018</v>
       </c>
       <c r="U29" t="n">
-        <v>227.9549368437593</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>304.4993117371657</v>
+        <v>277.8885247275824</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>73.88797171402581</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.579033448968</v>
+        <v>156.5790334489682</v>
       </c>
       <c r="C31" t="n">
-        <v>143.9938743656586</v>
+        <v>143.9938743656587</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>125.3625262852432</v>
       </c>
       <c r="E31" t="n">
-        <v>123.1810159135999</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>122.168101289962</v>
+        <v>122.1681012899621</v>
       </c>
       <c r="G31" t="n">
-        <v>143.9655503872846</v>
+        <v>143.9655503872847</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.1061564202487</v>
       </c>
       <c r="I31" t="n">
-        <v>108.9668805217269</v>
+        <v>108.966880521727</v>
       </c>
       <c r="J31" t="n">
-        <v>15.4917391426166</v>
+        <v>15.49173914261674</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>187.301392661832</v>
+        <v>148.1487672113574</v>
       </c>
       <c r="T31" t="n">
-        <v>201.3920367684367</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>263.0239472287105</v>
+        <v>263.0239472287106</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>228.8846965908589</v>
       </c>
       <c r="W31" t="n">
-        <v>190.5660461483334</v>
+        <v>263.2700516036219</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>195.3317066191255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>209.9561782947805</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>331.4300948877138</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>358.6774233392927</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>383.6230990087423</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>298.585228355188</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.8310411182196</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.43926189309683</v>
       </c>
       <c r="S32" t="n">
-        <v>136.4624918774121</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>192.3043372446016</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>227.9549368437593</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>325.9880219844438</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>362.9849919230844</v>
+        <v>362.9849919230845</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25072,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.76892989210687</v>
+        <v>156.5790334489682</v>
       </c>
       <c r="C34" t="n">
-        <v>143.9938743656586</v>
+        <v>143.9938743656587</v>
       </c>
       <c r="D34" t="n">
-        <v>125.3625262852431</v>
+        <v>125.3625262852432</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>123.1810159136</v>
       </c>
       <c r="F34" t="n">
-        <v>122.168101289962</v>
+        <v>122.1681012899621</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>143.9655503872847</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.9668805217269</v>
+        <v>89.00281683448377</v>
       </c>
       <c r="J34" t="n">
-        <v>15.4917391426166</v>
+        <v>15.49173914261674</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.3068341881869</v>
+        <v>119.306834188187</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.3013926618322</v>
       </c>
       <c r="T34" t="n">
-        <v>201.3920367684367</v>
+        <v>201.3920367684369</v>
       </c>
       <c r="U34" t="n">
-        <v>263.0239472287105</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>228.8846965908587</v>
+        <v>228.8846965908589</v>
       </c>
       <c r="W34" t="n">
-        <v>263.2700516036218</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>195.3317066191255</v>
+        <v>195.3317066191257</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>359.4808949305115</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>331.4300948877137</v>
+        <v>331.4300948877138</v>
       </c>
       <c r="E35" t="n">
-        <v>358.6774233392925</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35154253758685</v>
+        <v>383.6230990087423</v>
       </c>
       <c r="G35" t="n">
-        <v>390.327674143317</v>
+        <v>390.3276741433172</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>298.5852283551881</v>
       </c>
       <c r="I35" t="n">
-        <v>120.8310411182196</v>
+        <v>120.8310411182198</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,22 +25202,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>146.5243899455099</v>
+        <v>146.52438994551</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>227.9549368437593</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>325.9880219844438</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>346.4781539454998</v>
+        <v>248.7608563561402</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.579033448968</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>143.9938743656586</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>125.3625262852431</v>
+        <v>3.716264726725328</v>
       </c>
       <c r="E37" t="n">
-        <v>123.1810159135999</v>
+        <v>123.1810159136</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>122.1681012899621</v>
       </c>
       <c r="G37" t="n">
-        <v>143.9655503872846</v>
+        <v>143.9655503872847</v>
       </c>
       <c r="H37" t="n">
-        <v>132.1061564202485</v>
+        <v>132.1061564202487</v>
       </c>
       <c r="I37" t="n">
-        <v>108.9668805217269</v>
+        <v>108.966880521727</v>
       </c>
       <c r="J37" t="n">
-        <v>15.4917391426166</v>
+        <v>15.49173914261674</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.306834188187</v>
       </c>
       <c r="S37" t="n">
-        <v>187.301392661832</v>
+        <v>187.3013926618322</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>201.3920367684369</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>263.0239472287106</v>
       </c>
       <c r="V37" t="n">
-        <v>228.8846965908587</v>
+        <v>228.8846965908589</v>
       </c>
       <c r="W37" t="n">
-        <v>88.34004348302417</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>202.4567086560679</v>
+        <v>202.456708656068</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.3317066191255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>359.4808949305113</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>342.0199450380383</v>
+        <v>342.0199450380384</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>358.6774233392927</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>383.6230990087423</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>390.3276741433172</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>298.5852283551881</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120.8310411182198</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.43926189309668</v>
+        <v>18.43926189309683</v>
       </c>
       <c r="S38" t="n">
-        <v>146.5243899455099</v>
+        <v>146.52438994551</v>
       </c>
       <c r="T38" t="n">
-        <v>149.692682241399</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>227.9549368437593</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>325.9880219844438</v>
+        <v>220.5352159039384</v>
       </c>
       <c r="X38" t="n">
-        <v>346.4781539454998</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>362.9849919230844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.579033448968</v>
+        <v>156.5790334489682</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>143.9938743656587</v>
       </c>
       <c r="D40" t="n">
-        <v>125.3625262852431</v>
+        <v>125.3625262852432</v>
       </c>
       <c r="E40" t="n">
-        <v>123.1810159135999</v>
+        <v>79.62631929299872</v>
       </c>
       <c r="F40" t="n">
-        <v>45.33717602276072</v>
+        <v>122.1681012899621</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.1061564202485</v>
+        <v>132.1061564202487</v>
       </c>
       <c r="I40" t="n">
-        <v>108.9668805217269</v>
+        <v>108.966880521727</v>
       </c>
       <c r="J40" t="n">
-        <v>15.4917391426166</v>
+        <v>15.49173914261674</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.306834188187</v>
       </c>
       <c r="S40" t="n">
-        <v>187.301392661832</v>
+        <v>187.3013926618322</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>263.0239472287105</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>228.8846965908587</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>263.2700516036218</v>
+        <v>263.2700516036219</v>
       </c>
       <c r="X40" t="n">
-        <v>202.4567086560679</v>
+        <v>202.456708656068</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>195.3317066191257</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.4808949305113</v>
+        <v>132.5119896543074</v>
       </c>
       <c r="C41" t="n">
-        <v>342.0199450380383</v>
+        <v>115.0510397618344</v>
       </c>
       <c r="D41" t="n">
-        <v>331.4300948877137</v>
+        <v>104.4611896115098</v>
       </c>
       <c r="E41" t="n">
-        <v>358.6774233392925</v>
+        <v>358.6774233392927</v>
       </c>
       <c r="F41" t="n">
-        <v>156.6541937325379</v>
+        <v>383.6230990087423</v>
       </c>
       <c r="G41" t="n">
-        <v>163.3587688671128</v>
+        <v>390.3276741433172</v>
       </c>
       <c r="H41" t="n">
-        <v>71.61632307898375</v>
+        <v>298.5852283551881</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>120.8310411182198</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.43926189309668</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.44121929644871</v>
+        <v>146.52438994551</v>
       </c>
       <c r="T41" t="n">
-        <v>192.3043372446016</v>
+        <v>10.82938737041809</v>
       </c>
       <c r="U41" t="n">
-        <v>227.9549368437593</v>
+        <v>227.9549368437595</v>
       </c>
       <c r="V41" t="n">
-        <v>304.4993117371657</v>
+        <v>304.4993117371658</v>
       </c>
       <c r="W41" t="n">
-        <v>325.9880219844438</v>
+        <v>325.9880219844439</v>
       </c>
       <c r="X41" t="n">
-        <v>346.4781539454998</v>
+        <v>346.4781539454999</v>
       </c>
       <c r="Y41" t="n">
-        <v>362.9849919230844</v>
+        <v>362.9849919230845</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.2802369168981</v>
+        <v>143.2802369168982</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.4555522553466</v>
       </c>
       <c r="D42" t="n">
-        <v>124.1921188316695</v>
+        <v>124.1921188316696</v>
       </c>
       <c r="E42" t="n">
-        <v>134.3921337224317</v>
+        <v>134.3921337224318</v>
       </c>
       <c r="F42" t="n">
-        <v>121.8162656604146</v>
+        <v>121.8162656604148</v>
       </c>
       <c r="G42" t="n">
-        <v>113.1691567965403</v>
+        <v>113.1691567965405</v>
       </c>
       <c r="H42" t="n">
-        <v>80.08358162015161</v>
+        <v>80.08358162015173</v>
       </c>
       <c r="I42" t="n">
-        <v>34.41957636163453</v>
+        <v>34.41957636163465</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>19.69641637286868</v>
+        <v>19.6964163728688</v>
       </c>
       <c r="S42" t="n">
-        <v>131.3153702536589</v>
+        <v>42.7288652329138</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>202.6278160299991</v>
       </c>
       <c r="V42" t="n">
-        <v>80.97682479409073</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.473131151746088</v>
+        <v>1.473131151746458</v>
       </c>
       <c r="X42" t="n">
-        <v>182.5200384705082</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>182.4297490443351</v>
+        <v>182.4297490443352</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.579033448968</v>
+        <v>156.5790334489682</v>
       </c>
       <c r="C43" t="n">
-        <v>143.9938743656586</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.3625262852431</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>123.1810159135999</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.168101289962</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>143.9655503872846</v>
+        <v>143.9655503872847</v>
       </c>
       <c r="H43" t="n">
-        <v>132.1061564202485</v>
+        <v>132.1061564202487</v>
       </c>
       <c r="I43" t="n">
-        <v>108.9668805217269</v>
+        <v>108.966880521727</v>
       </c>
       <c r="J43" t="n">
-        <v>15.4917391426166</v>
+        <v>15.49173914261674</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,22 +25837,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>141.8848538770277</v>
       </c>
       <c r="U43" t="n">
-        <v>263.0239472287105</v>
+        <v>263.0239472287106</v>
       </c>
       <c r="V43" t="n">
-        <v>1.915791314654484</v>
+        <v>228.8846965908589</v>
       </c>
       <c r="W43" t="n">
-        <v>263.2700516036218</v>
+        <v>263.2700516036219</v>
       </c>
       <c r="X43" t="n">
-        <v>202.4567086560679</v>
+        <v>202.456708656068</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.47994791789196</v>
+        <v>195.3317066191257</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25865,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>281.2301001702237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>286.5139400077933</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>318.1641908118178</v>
+        <v>413.5806208762863</v>
       </c>
       <c r="H44" t="n">
         <v>226.4217450236887</v>
@@ -25919,19 +25919,19 @@
         <v>215.5572839775709</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2078835767286</v>
+        <v>167.1650919759448</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>253.8245386529445</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>290.8215085915851</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.11675358539884</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>146.3382304821357</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4221035295096</v>
+        <v>41.00567346504113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.920098288652355</v>
+        <v>103.3365283531209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>57.67252309460378</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>196.4507851449478</v>
       </c>
       <c r="U45" t="n">
-        <v>130.4643326984997</v>
+        <v>225.8807627629682</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>167.6521915601358</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>110.356555139009</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>110.2662657128359</v>
       </c>
     </row>
     <row r="46">
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>61.37825642214744</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2184971202539</v>
+        <v>71.80206705578536</v>
       </c>
       <c r="H46" t="n">
-        <v>155.3591031532178</v>
+        <v>59.94267308874927</v>
       </c>
       <c r="I46" t="n">
         <v>132.2198272546962</v>
@@ -26068,25 +26068,25 @@
         <v>21.47718965073622</v>
       </c>
       <c r="R46" t="n">
-        <v>47.14335085668762</v>
+        <v>142.5597809211561</v>
       </c>
       <c r="S46" t="n">
-        <v>115.1379093303328</v>
+        <v>210.5543393948013</v>
       </c>
       <c r="T46" t="n">
-        <v>224.644983501406</v>
+        <v>129.2285534369375</v>
       </c>
       <c r="U46" t="n">
         <v>286.2768939616797</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>168.0948517230442</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>130.2932253245687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379352.7556621634</v>
+        <v>379352.7556621635</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>598712.4261611238</v>
+        <v>598712.4261611239</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681682.0338953385</v>
+        <v>681682.0338953387</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>707385.6193477646</v>
+        <v>707385.6193477645</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>707385.6193477644</v>
+        <v>707385.6193477646</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749253.2586660351</v>
+        <v>749253.2586660347</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>749253.2586660351</v>
+        <v>749253.2586660348</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678466.1223327732</v>
+        <v>678466.1223327731</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459106.4518338126</v>
+        <v>459106.4518338123</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>275016.0699744779</v>
+        <v>275016.069974478</v>
       </c>
       <c r="F2" t="n">
-        <v>275016.0699744779</v>
+        <v>275016.069974478</v>
       </c>
       <c r="G2" t="n">
         <v>402636.3129041894</v>
       </c>
       <c r="H2" t="n">
-        <v>450906.81527474</v>
+        <v>450906.8152747404</v>
       </c>
       <c r="I2" t="n">
-        <v>465860.7847630321</v>
+        <v>465860.784763032</v>
       </c>
       <c r="J2" t="n">
-        <v>465860.7847630321</v>
+        <v>465860.7847630319</v>
       </c>
       <c r="K2" t="n">
-        <v>499140.1903749906</v>
+        <v>499140.1903749908</v>
       </c>
       <c r="L2" t="n">
-        <v>499140.1903749906</v>
+        <v>499140.1903749909</v>
       </c>
       <c r="M2" t="n">
-        <v>461234.6323433887</v>
+        <v>461234.6323433892</v>
       </c>
       <c r="N2" t="n">
-        <v>461234.6323433892</v>
+        <v>461234.6323433895</v>
       </c>
       <c r="O2" t="n">
-        <v>333614.3894136777</v>
+        <v>333614.3894136774</v>
       </c>
       <c r="P2" t="n">
-        <v>232918.9352091104</v>
+        <v>232918.9352091103</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95328.34219495037</v>
+        <v>95328.34219495053</v>
       </c>
       <c r="H3" t="n">
-        <v>35494.04178440323</v>
+        <v>35494.04178440317</v>
       </c>
       <c r="I3" t="n">
         <v>16610.13237555851</v>
@@ -26390,13 +26390,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18602.35738637541</v>
+        <v>18602.3573863753</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8212.21190957231</v>
+        <v>8212.211909572423</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>33184.56570063558</v>
+        <v>33530.66982930807</v>
       </c>
       <c r="F4" t="n">
-        <v>33184.56570063558</v>
+        <v>33530.66982930807</v>
       </c>
       <c r="G4" t="n">
-        <v>91631.75359946198</v>
+        <v>92587.86332147125</v>
       </c>
       <c r="H4" t="n">
-        <v>113738.5530950264</v>
+        <v>114925.3885683996</v>
       </c>
       <c r="I4" t="n">
-        <v>120587.1332610811</v>
+        <v>121845.4464626033</v>
       </c>
       <c r="J4" t="n">
-        <v>120587.1332610811</v>
+        <v>121845.4464626034</v>
       </c>
       <c r="K4" t="n">
-        <v>145140.1413677395</v>
+        <v>146398.4545692616</v>
       </c>
       <c r="L4" t="n">
-        <v>145140.1413677395</v>
+        <v>146398.4545692616</v>
       </c>
       <c r="M4" t="n">
-        <v>131184.9994164118</v>
+        <v>132203.6938368196</v>
       </c>
       <c r="N4" t="n">
-        <v>131184.9994164118</v>
+        <v>132203.6938368196</v>
       </c>
       <c r="O4" t="n">
-        <v>72737.81151758537</v>
+        <v>73146.50034465631</v>
       </c>
       <c r="P4" t="n">
-        <v>14094.27640488662</v>
+        <v>14241.14625505313</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>20968.74229390651</v>
       </c>
       <c r="G5" t="n">
-        <v>42115.3326051347</v>
+        <v>42115.33260513472</v>
       </c>
       <c r="H5" t="n">
         <v>50113.72309800824</v>
@@ -26494,19 +26494,19 @@
         <v>53911.45268098197</v>
       </c>
       <c r="K5" t="n">
-        <v>55866.30465987597</v>
+        <v>55866.30465987595</v>
       </c>
       <c r="L5" t="n">
-        <v>55866.30465987597</v>
+        <v>55866.30465987595</v>
       </c>
       <c r="M5" t="n">
-        <v>46239.75973423256</v>
+        <v>46239.75973423258</v>
       </c>
       <c r="N5" t="n">
         <v>46239.75973423256</v>
       </c>
       <c r="O5" t="n">
-        <v>25093.16942300435</v>
+        <v>25093.16942300432</v>
       </c>
       <c r="P5" t="n">
         <v>15139.92695123682</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181944.4406588024</v>
+        <v>181163.7936161734</v>
       </c>
       <c r="C6" t="n">
-        <v>181944.4406588024</v>
+        <v>181163.7936161737</v>
       </c>
       <c r="D6" t="n">
-        <v>181944.4406588024</v>
+        <v>181163.7936161736</v>
       </c>
       <c r="E6" t="n">
-        <v>-180409.7380497834</v>
+        <v>-180755.8421784558</v>
       </c>
       <c r="F6" t="n">
-        <v>220862.7619799358</v>
+        <v>220516.6578512635</v>
       </c>
       <c r="G6" t="n">
-        <v>173560.8845046423</v>
+        <v>172604.7747826329</v>
       </c>
       <c r="H6" t="n">
-        <v>251560.4972973022</v>
+        <v>250373.6618239294</v>
       </c>
       <c r="I6" t="n">
-        <v>274752.0664454106</v>
+        <v>273493.7532438883</v>
       </c>
       <c r="J6" t="n">
-        <v>291362.1988209691</v>
+        <v>290103.8856194466</v>
       </c>
       <c r="K6" t="n">
-        <v>279531.3869609997</v>
+        <v>278273.0737594779</v>
       </c>
       <c r="L6" t="n">
-        <v>298133.7443473752</v>
+        <v>296875.4311458534</v>
       </c>
       <c r="M6" t="n">
-        <v>275597.6612831721</v>
+        <v>274578.9668627646</v>
       </c>
       <c r="N6" t="n">
-        <v>283809.8731927448</v>
+        <v>282791.1787723374</v>
       </c>
       <c r="O6" t="n">
-        <v>235783.408473088</v>
+        <v>235374.7196460168</v>
       </c>
       <c r="P6" t="n">
-        <v>203684.7318529869</v>
+        <v>203537.8620028204</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>191.285103463641</v>
       </c>
       <c r="G4" t="n">
-        <v>539.0908651614732</v>
+        <v>539.0908651614734</v>
       </c>
       <c r="H4" t="n">
         <v>670.643340373209</v>
@@ -26820,13 +26820,13 @@
         <v>733.1059979879085</v>
       </c>
       <c r="M4" t="n">
-        <v>574.7746669740367</v>
+        <v>574.7746669740371</v>
       </c>
       <c r="N4" t="n">
-        <v>574.7746669740367</v>
+        <v>574.7746669740369</v>
       </c>
       <c r="O4" t="n">
-        <v>226.9689052762043</v>
+        <v>226.968905276204</v>
       </c>
       <c r="P4" t="n">
         <v>95.4164300644685</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>347.8057616978323</v>
+        <v>347.8057616978328</v>
       </c>
       <c r="H4" t="n">
-        <v>131.5524752117358</v>
+        <v>131.5524752117356</v>
       </c>
       <c r="I4" t="n">
         <v>62.46265761469954</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>32.9537724497693</v>
+        <v>32.95377244976976</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>347.8057616978323</v>
+        <v>347.8057616978328</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5524752117358</v>
+        <v>131.5524752117356</v>
       </c>
     </row>
   </sheetData>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y29" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="K31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="R31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y32" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="K34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="R34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="K37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="R37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y38" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="K40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="R40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="C43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="D43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="E43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="F43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="G43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="H43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="I43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="J43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="K43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="L43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="M43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="N43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="O43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="P43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="R43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="S43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="T43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="U43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="V43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="W43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="X43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.25294673296926</v>
+        <v>23.25294673296913</v>
       </c>
     </row>
     <row r="44">
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>106.9660391388462</v>
+        <v>147.9322165032909</v>
       </c>
       <c r="L12" t="n">
-        <v>61.50957608139248</v>
+        <v>191.285103463641</v>
       </c>
       <c r="M12" t="n">
-        <v>91.33116616091013</v>
+        <v>191.285103463641</v>
       </c>
       <c r="N12" t="n">
-        <v>191.285103463641</v>
+        <v>108.3026171484059</v>
       </c>
       <c r="O12" t="n">
         <v>76.6314984826565</v>
@@ -35507,7 +35507,7 @@
         <v>41.97518374389273</v>
       </c>
       <c r="Q12" t="n">
-        <v>187.7131557341889</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>32.54256875355814</v>
       </c>
       <c r="L14" t="n">
-        <v>48.95209831053948</v>
+        <v>191.285103463641</v>
       </c>
       <c r="M14" t="n">
         <v>72.04238003398044</v>
@@ -35662,7 +35662,7 @@
         <v>191.285103463641</v>
       </c>
       <c r="P14" t="n">
-        <v>191.285103463641</v>
+        <v>16.4095295569814</v>
       </c>
       <c r="Q14" t="n">
         <v>175.9785239689347</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>10.94665642901955</v>
+      </c>
+      <c r="L15" t="n">
         <v>191.285103463641</v>
       </c>
-      <c r="L15" t="n">
-        <v>61.50957608139248</v>
-      </c>
       <c r="M15" t="n">
-        <v>91.33116616091013</v>
+        <v>191.285103463641</v>
       </c>
       <c r="N15" t="n">
         <v>108.3026171484059</v>
       </c>
       <c r="O15" t="n">
-        <v>76.6314984826565</v>
+        <v>191.285103463641</v>
       </c>
       <c r="P15" t="n">
-        <v>41.97518374389273</v>
+        <v>64.30713883717951</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.3765777246291</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>453.6577210655897</v>
       </c>
       <c r="M17" t="n">
-        <v>521.5559135268129</v>
+        <v>72.04238003398044</v>
       </c>
       <c r="N17" t="n">
-        <v>203.0058178301093</v>
+        <v>506.699167120395</v>
       </c>
       <c r="O17" t="n">
         <v>440.8592496748885</v>
       </c>
       <c r="P17" t="n">
-        <v>16.4095295569814</v>
+        <v>338.208237728464</v>
       </c>
       <c r="Q17" t="n">
-        <v>175.9785239689347</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>10.94665642901955</v>
+        <v>275.4118934415982</v>
       </c>
       <c r="L18" t="n">
         <v>432.3499213848517</v>
       </c>
       <c r="M18" t="n">
-        <v>539.0908651614732</v>
+        <v>539.0908651614734</v>
       </c>
       <c r="N18" t="n">
-        <v>133.5496426957103</v>
+        <v>375.2603300572586</v>
       </c>
       <c r="O18" t="n">
         <v>470.493817759386</v>
       </c>
       <c r="P18" t="n">
-        <v>360.4379523838299</v>
+        <v>41.97518374389273</v>
       </c>
       <c r="Q18" t="n">
-        <v>187.7131557341889</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>134.2132077218778</v>
       </c>
       <c r="K20" t="n">
         <v>323.1152559251427</v>
       </c>
       <c r="L20" t="n">
-        <v>453.6577210655897</v>
+        <v>206.3308343488002</v>
       </c>
       <c r="M20" t="n">
-        <v>408.4422345319011</v>
+        <v>521.5559135268129</v>
       </c>
       <c r="N20" t="n">
         <v>515.2154379767755</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>275.4118934415982</v>
       </c>
       <c r="L21" t="n">
-        <v>432.3499213848517</v>
+        <v>216.7386201498241</v>
       </c>
       <c r="M21" t="n">
         <v>557.03622991091</v>
@@ -36212,7 +36212,7 @@
         <v>587.6449914919594</v>
       </c>
       <c r="O21" t="n">
-        <v>168.5757259052057</v>
+        <v>470.493817759386</v>
       </c>
       <c r="P21" t="n">
         <v>360.4379523838299</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>275.4118934415982</v>
@@ -36443,7 +36443,7 @@
         <v>432.3499213848517</v>
       </c>
       <c r="M24" t="n">
-        <v>255.1181380567297</v>
+        <v>529.1380844100714</v>
       </c>
       <c r="N24" t="n">
         <v>587.6449914919594</v>
@@ -36455,7 +36455,7 @@
         <v>360.4379523838299</v>
       </c>
       <c r="Q24" t="n">
-        <v>187.7131557341889</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>515.2154379767755</v>
       </c>
       <c r="O26" t="n">
-        <v>440.8592496748885</v>
+        <v>440.8592496748892</v>
       </c>
       <c r="P26" t="n">
         <v>338.208237728464</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>275.4118934415982</v>
@@ -36683,10 +36683,10 @@
         <v>557.03622991091</v>
       </c>
       <c r="N27" t="n">
-        <v>285.7268996377791</v>
+        <v>587.6449914919594</v>
       </c>
       <c r="O27" t="n">
-        <v>470.493817759386</v>
+        <v>254.8825165243583</v>
       </c>
       <c r="P27" t="n">
         <v>360.4379523838299</v>
@@ -36841,7 +36841,7 @@
         <v>521.5559135268129</v>
       </c>
       <c r="N29" t="n">
-        <v>515.2154379767762</v>
+        <v>515.2154379767755</v>
       </c>
       <c r="O29" t="n">
         <v>440.8592496748885</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>275.4118934415982</v>
+        <v>59.80059220657037</v>
       </c>
       <c r="L30" t="n">
         <v>432.3499213848517</v>
       </c>
       <c r="M30" t="n">
-        <v>255.1181380567301</v>
+        <v>557.03622991091</v>
       </c>
       <c r="N30" t="n">
         <v>587.6449914919594</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>90.73184585489284</v>
+        <v>90.7318458548927</v>
       </c>
       <c r="L31" t="n">
-        <v>165.6900131169495</v>
+        <v>165.6900131169493</v>
       </c>
       <c r="M31" t="n">
-        <v>183.9269258163299</v>
+        <v>183.9269258163298</v>
       </c>
       <c r="N31" t="n">
-        <v>185.5959692549543</v>
+        <v>185.5959692549541</v>
       </c>
       <c r="O31" t="n">
-        <v>157.0249277343716</v>
+        <v>157.0249277343715</v>
       </c>
       <c r="P31" t="n">
-        <v>113.9597214258453</v>
+        <v>113.9597214258451</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.775757082233035</v>
+        <v>1.7757570822329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>275.4118934415982</v>
@@ -37154,7 +37154,7 @@
         <v>432.3499213848517</v>
       </c>
       <c r="M33" t="n">
-        <v>255.1181380567297</v>
+        <v>557.03622991091</v>
       </c>
       <c r="N33" t="n">
         <v>587.6449914919594</v>
@@ -37163,7 +37163,7 @@
         <v>470.493817759386</v>
       </c>
       <c r="P33" t="n">
-        <v>360.4379523838299</v>
+        <v>144.826651148802</v>
       </c>
       <c r="Q33" t="n">
         <v>187.7131557341889</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>90.73184585489284</v>
+        <v>90.7318458548927</v>
       </c>
       <c r="L34" t="n">
-        <v>165.6900131169495</v>
+        <v>165.6900131169493</v>
       </c>
       <c r="M34" t="n">
-        <v>183.9269258163299</v>
+        <v>183.9269258163298</v>
       </c>
       <c r="N34" t="n">
-        <v>185.5959692549543</v>
+        <v>185.5959692549541</v>
       </c>
       <c r="O34" t="n">
-        <v>157.0249277343716</v>
+        <v>157.0249277343715</v>
       </c>
       <c r="P34" t="n">
-        <v>113.9597214258453</v>
+        <v>113.9597214258451</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.775757082233035</v>
+        <v>1.7757570822329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>134.2132077218778</v>
+        <v>64.0638143935827</v>
       </c>
       <c r="K35" t="n">
         <v>323.1152559251427</v>
@@ -37312,13 +37312,13 @@
         <v>453.6577210655897</v>
       </c>
       <c r="M35" t="n">
-        <v>72.04238003398044</v>
+        <v>521.5559135268129</v>
       </c>
       <c r="N35" t="n">
         <v>515.2154379767755</v>
       </c>
       <c r="O35" t="n">
-        <v>439.4232085766787</v>
+        <v>60.05906841214309</v>
       </c>
       <c r="P35" t="n">
         <v>338.208237728464</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>275.4118934415982</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2764172163249</v>
+        <v>432.3499213848517</v>
       </c>
       <c r="M36" t="n">
         <v>557.03622991091</v>
       </c>
       <c r="N36" t="n">
-        <v>574.7746669740367</v>
+        <v>574.7746669740371</v>
       </c>
       <c r="O36" t="n">
         <v>76.6314984826565</v>
       </c>
       <c r="P36" t="n">
-        <v>360.4379523838299</v>
+        <v>359.6712388344571</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>90.73184585489284</v>
+        <v>90.7318458548927</v>
       </c>
       <c r="L37" t="n">
-        <v>165.6900131169495</v>
+        <v>165.6900131169493</v>
       </c>
       <c r="M37" t="n">
-        <v>183.9269258163299</v>
+        <v>183.9269258163298</v>
       </c>
       <c r="N37" t="n">
-        <v>185.5959692549543</v>
+        <v>185.5959692549541</v>
       </c>
       <c r="O37" t="n">
-        <v>157.0249277343716</v>
+        <v>157.0249277343715</v>
       </c>
       <c r="P37" t="n">
-        <v>113.9597214258453</v>
+        <v>113.9597214258451</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.775757082233035</v>
+        <v>1.7757570822329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>521.5559135268129</v>
       </c>
       <c r="N38" t="n">
-        <v>198.4790711076109</v>
+        <v>198.4790711076118</v>
       </c>
       <c r="O38" t="n">
         <v>440.8592496748885</v>
@@ -37625,22 +37625,22 @@
         <v>10.94665642901955</v>
       </c>
       <c r="L39" t="n">
-        <v>432.3499213848517</v>
+        <v>302.1861255713275</v>
       </c>
       <c r="M39" t="n">
         <v>557.03622991091</v>
       </c>
       <c r="N39" t="n">
-        <v>574.7746669740367</v>
+        <v>574.7746669740369</v>
       </c>
       <c r="O39" t="n">
-        <v>152.6168662116724</v>
+        <v>470.493817759386</v>
       </c>
       <c r="P39" t="n">
         <v>360.4379523838299</v>
       </c>
       <c r="Q39" t="n">
-        <v>187.7131557341889</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>90.73184585489284</v>
+        <v>90.7318458548927</v>
       </c>
       <c r="L40" t="n">
-        <v>165.6900131169495</v>
+        <v>165.6900131169493</v>
       </c>
       <c r="M40" t="n">
-        <v>183.9269258163299</v>
+        <v>183.9269258163298</v>
       </c>
       <c r="N40" t="n">
-        <v>185.5959692549543</v>
+        <v>185.5959692549541</v>
       </c>
       <c r="O40" t="n">
-        <v>157.0249277343716</v>
+        <v>157.0249277343715</v>
       </c>
       <c r="P40" t="n">
-        <v>113.9597214258453</v>
+        <v>113.9597214258451</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.775757082233035</v>
+        <v>1.7757570822329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>79.870862480029</v>
       </c>
       <c r="L41" t="n">
-        <v>118.8779321654614</v>
+        <v>226.968905276204</v>
       </c>
       <c r="M41" t="n">
-        <v>72.04238003398044</v>
+        <v>226.968905276204</v>
       </c>
       <c r="N41" t="n">
         <v>77.86851356479133</v>
       </c>
       <c r="O41" t="n">
-        <v>226.9689052762043</v>
+        <v>60.05906841214309</v>
       </c>
       <c r="P41" t="n">
-        <v>226.9689052762043</v>
+        <v>226.968905276204</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.9785239689347</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>86.30679061915262</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>10.94665642901955</v>
+        <v>198.3236580207126</v>
       </c>
       <c r="L42" t="n">
         <v>61.50957608139248</v>
       </c>
       <c r="M42" t="n">
-        <v>226.9689052762043</v>
+        <v>226.968905276204</v>
       </c>
       <c r="N42" t="n">
-        <v>226.9689052762043</v>
+        <v>108.3026171484059</v>
       </c>
       <c r="O42" t="n">
-        <v>226.9689052762043</v>
+        <v>76.6314984826565</v>
       </c>
       <c r="P42" t="n">
-        <v>59.03542132739897</v>
+        <v>226.968905276204</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>90.73184585489284</v>
+        <v>90.7318458548927</v>
       </c>
       <c r="L43" t="n">
-        <v>165.6900131169495</v>
+        <v>165.6900131169493</v>
       </c>
       <c r="M43" t="n">
-        <v>183.9269258163299</v>
+        <v>183.9269258163298</v>
       </c>
       <c r="N43" t="n">
-        <v>185.5959692549543</v>
+        <v>185.5959692549541</v>
       </c>
       <c r="O43" t="n">
-        <v>157.0249277343716</v>
+        <v>157.0249277343715</v>
       </c>
       <c r="P43" t="n">
-        <v>113.9597214258453</v>
+        <v>113.9597214258451</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.775757082233035</v>
+        <v>1.7757570822329</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>20.01808281483601</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>35.99650651513923</v>
       </c>
       <c r="M44" t="n">
-        <v>72.04238003398044</v>
+        <v>95.4164300644685</v>
       </c>
       <c r="N44" t="n">
         <v>77.86851356479133</v>
       </c>
       <c r="O44" t="n">
-        <v>60.05906841214309</v>
+        <v>73.1126307534724</v>
       </c>
       <c r="P44" t="n">
-        <v>16.4095295569814</v>
+        <v>95.4164300644685</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.4164300644685</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.854446076058415</v>
-      </c>
-      <c r="L46" t="n">
-        <v>95.4164300644685</v>
       </c>
       <c r="M46" t="n">
         <v>95.4164300644685</v>
@@ -38187,7 +38187,7 @@
         <v>95.4164300644685</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>95.4164300644685</v>
       </c>
       <c r="P46" t="n">
         <v>90.70677469287601</v>
